--- a/Net Worth Nexus.xlsx
+++ b/Net Worth Nexus.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliangriffin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliangriffin/Desktop/GitHub/Net_Worth_Nexus_Local/Net_Worth_Nexus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CDDC18-D4B3-A445-9593-EEA4271C7B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BC7250-75CC-F34D-9B88-063A3DADA109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
-    <sheet name="Assets" sheetId="9" r:id="rId2"/>
-    <sheet name="Budget Allocation" sheetId="3" r:id="rId3"/>
-    <sheet name="TFSA Tracker" sheetId="7" r:id="rId4"/>
-    <sheet name="TFSA Transactions" sheetId="5" r:id="rId5"/>
-    <sheet name="Savings" sheetId="8" r:id="rId6"/>
-    <sheet name="Data_Validation" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Introduction" sheetId="10" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
+    <sheet name="Assets" sheetId="9" r:id="rId3"/>
+    <sheet name="Budget Allocation" sheetId="3" r:id="rId4"/>
+    <sheet name="TFSA Tracker" sheetId="7" r:id="rId5"/>
+    <sheet name="TFSA Transactions" sheetId="5" r:id="rId6"/>
+    <sheet name="Savings" sheetId="8" r:id="rId7"/>
+    <sheet name="Data_Validation" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="193">
+  <futureMetadata name="XLRICHVALUE" count="186">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -1353,55 +1354,6 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="197"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="198"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="199"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="200"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="201"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="202"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="203"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="204"/>
         </ext>
       </extLst>
     </bk>
@@ -1411,7 +1363,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="193">
+  <valueMetadata count="186">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -1969,34 +1921,13 @@
     </bk>
     <bk>
       <rc t="2" v="185"/>
-    </bk>
-    <bk>
-      <rc t="2" v="186"/>
-    </bk>
-    <bk>
-      <rc t="2" v="187"/>
-    </bk>
-    <bk>
-      <rc t="2" v="188"/>
-    </bk>
-    <bk>
-      <rc t="2" v="189"/>
-    </bk>
-    <bk>
-      <rc t="2" v="190"/>
-    </bk>
-    <bk>
-      <rc t="2" v="191"/>
-    </bk>
-    <bk>
-      <rc t="2" v="192"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>Ticker</t>
   </si>
@@ -2270,6 +2201,62 @@
   <si>
     <t>The Net Worth Nexus</t>
   </si>
+  <si>
+    <t>Introduction:</t>
+  </si>
+  <si>
+    <t>Julian Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The Net Worth Nexus: Ultimate Financial Tracker</t>
+  </si>
+  <si>
+    <t>Yours in Solutions,</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>2. The data presented is used as placeholders (im not that rich yet unfortunately).</t>
+  </si>
+  <si>
+    <t>1. The workbook is protected so some fields may unavailable for editing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Net Worth Dashboard is the outcome of my mission to take personal finance tracking from clunky to clean. I built it entirely in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel — not with some fancy plug-in, but with formulas, logic, and a stubborn refusal to let my money wander around untracked. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Track everything </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>finanical</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in one place. Your Net Worth Nexus!</t>
+    </r>
+  </si>
+  <si>
+    <t>The structure? All me. The visuals? All me. While I didn't start with a million bucks, I figured I could still track every dollar like one.</t>
+  </si>
 </sst>
 </file>
 
@@ -2283,7 +2270,7 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="\+0.00%;\-0.00%\ "/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2649,8 +2636,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF28A745"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF28A745"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF28A745"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2749,6 +2784,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8CC8E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2904,7 +2945,7 @@
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2955,9 +2996,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2994,23 +3032,11 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="26" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3021,22 +3047,7 @@
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3046,12 +3057,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3064,21 +3069,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3087,47 +3077,14 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="49" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="41" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="41" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3138,48 +3095,11 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="41" fillId="16" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="41" fillId="16" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3196,21 +3116,6 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="32" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3223,6 +3128,9 @@
     <xf numFmtId="10" fontId="38" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="32" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="37" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3231,6 +3139,198 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="14" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="17" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="41" fillId="16" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="41" fillId="16" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3270,60 +3370,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3338,6 +3386,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3352,6 +3401,7 @@
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3365,6 +3415,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3378,6 +3429,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3391,6 +3443,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3404,6 +3457,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3418,6 +3472,79 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3433,6 +3560,23 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3449,6 +3593,7 @@
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3465,6 +3610,7 @@
       </font>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3481,6 +3627,7 @@
       </font>
       <numFmt numFmtId="164" formatCode="0;\(0\)\ "/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3496,6 +3643,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3511,6 +3659,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3525,6 +3674,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3541,50 +3691,22 @@
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FA00"/>
+      <color rgb="FFA8CC8E"/>
+      <color rgb="FFA8CC76"/>
+      <color rgb="FF28A745"/>
+      <color rgb="FF50C878"/>
+      <color rgb="FF80FF33"/>
       <color rgb="FF9932CC"/>
       <color rgb="FF999999"/>
       <color rgb="FF5D6D7E"/>
       <color rgb="FFF8F9FA"/>
-      <color rgb="FF9B59B6"/>
-      <color rgb="FF6A0DAD"/>
-      <color rgb="FF555555"/>
-      <color rgb="FF34495E"/>
-      <color rgb="FF28A745"/>
-      <color rgb="FFFAFAFA"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5245,13 +5367,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.39122941527250804</c:v>
+                  <c:v>0.39043571764525992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1310148688409639E-2</c:v>
+                  <c:v>7.2014651892896256E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53746043603908233</c:v>
+                  <c:v>0.53754963046184379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5424,184 +5546,184 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>45691</c:v>
+                  <c:v>45694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45692</c:v>
+                  <c:v>45695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45698</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45699</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45700</c:v>
+                  <c:v>45706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45701</c:v>
+                  <c:v>45707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45702</c:v>
+                  <c:v>45708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45706</c:v>
+                  <c:v>45709</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45707</c:v>
+                  <c:v>45712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45708</c:v>
+                  <c:v>45713</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45709</c:v>
+                  <c:v>45714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45712</c:v>
+                  <c:v>45715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45713</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45714</c:v>
+                  <c:v>45719</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45715</c:v>
+                  <c:v>45720</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45716</c:v>
+                  <c:v>45721</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45719</c:v>
+                  <c:v>45722</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45720</c:v>
+                  <c:v>45723</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45721</c:v>
+                  <c:v>45726</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45722</c:v>
+                  <c:v>45727</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45723</c:v>
+                  <c:v>45728</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45726</c:v>
+                  <c:v>45729</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45727</c:v>
+                  <c:v>45730</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45728</c:v>
+                  <c:v>45733</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45729</c:v>
+                  <c:v>45734</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45730</c:v>
+                  <c:v>45735</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45733</c:v>
+                  <c:v>45736</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45734</c:v>
+                  <c:v>45737</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45735</c:v>
+                  <c:v>45740</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45736</c:v>
+                  <c:v>45741</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45737</c:v>
+                  <c:v>45742</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45740</c:v>
+                  <c:v>45743</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45741</c:v>
+                  <c:v>45744</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45742</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45743</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45744</c:v>
+                  <c:v>45749</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45747</c:v>
+                  <c:v>45750</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45748</c:v>
+                  <c:v>45751</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45749</c:v>
+                  <c:v>45754</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45750</c:v>
+                  <c:v>45755</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45751</c:v>
+                  <c:v>45756</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45754</c:v>
+                  <c:v>45757</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45755</c:v>
+                  <c:v>45758</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45756</c:v>
+                  <c:v>45761</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45757</c:v>
+                  <c:v>45762</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45758</c:v>
+                  <c:v>45763</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45761</c:v>
+                  <c:v>45764</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45762</c:v>
+                  <c:v>45768</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>45763</c:v>
+                  <c:v>45769</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>45764</c:v>
+                  <c:v>45770</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45768</c:v>
+                  <c:v>45771</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>45769</c:v>
+                  <c:v>45772</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>45770</c:v>
+                  <c:v>45775</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45771</c:v>
+                  <c:v>45776</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45772</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>45775</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45776</c:v>
+                  <c:v>45779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5613,184 +5735,184 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>5994.57</c:v>
+                  <c:v>6083.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6037.88</c:v>
+                  <c:v>6025.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6061.48</c:v>
+                  <c:v>6066.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6083.57</c:v>
+                  <c:v>6068.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6025.99</c:v>
+                  <c:v>6051.97</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6066.44</c:v>
+                  <c:v>6115.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6068.5</c:v>
+                  <c:v>6114.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6051.97</c:v>
+                  <c:v>6129.58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6115.07</c:v>
+                  <c:v>6144.15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6114.63</c:v>
+                  <c:v>6117.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6129.58</c:v>
+                  <c:v>6013.13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6144.15</c:v>
+                  <c:v>5983.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6117.52</c:v>
+                  <c:v>5955.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6013.13</c:v>
+                  <c:v>5956.06</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5983.25</c:v>
+                  <c:v>5861.57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5955.25</c:v>
+                  <c:v>5954.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5956.06</c:v>
+                  <c:v>5849.72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5861.57</c:v>
+                  <c:v>5778.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5954.5</c:v>
+                  <c:v>5842.63</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5849.72</c:v>
+                  <c:v>5738.52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5778.15</c:v>
+                  <c:v>5770.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5842.63</c:v>
+                  <c:v>5614.56</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5738.52</c:v>
+                  <c:v>5572.07</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5770.2</c:v>
+                  <c:v>5599.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5614.56</c:v>
+                  <c:v>5521.52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5572.07</c:v>
+                  <c:v>5638.94</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5599.3</c:v>
+                  <c:v>5675.12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5521.52</c:v>
+                  <c:v>5614.66</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5638.94</c:v>
+                  <c:v>5675.29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5675.12</c:v>
+                  <c:v>5662.89</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5614.66</c:v>
+                  <c:v>5667.56</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5675.29</c:v>
+                  <c:v>5767.57</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5662.89</c:v>
+                  <c:v>5776.65</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5667.56</c:v>
+                  <c:v>5712.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5767.57</c:v>
+                  <c:v>5693.31</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5776.65</c:v>
+                  <c:v>5580.94</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5712.2</c:v>
+                  <c:v>5611.85</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5693.31</c:v>
+                  <c:v>5633.07</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5580.94</c:v>
+                  <c:v>5670.97</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5611.85</c:v>
+                  <c:v>5396.52</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5633.07</c:v>
+                  <c:v>5074.08</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5670.97</c:v>
+                  <c:v>5062.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5396.52</c:v>
+                  <c:v>4982.7700000000004</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5074.08</c:v>
+                  <c:v>5456.9</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5062.25</c:v>
+                  <c:v>5268.05</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4982.7700000000004</c:v>
+                  <c:v>5363.36</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5456.9</c:v>
+                  <c:v>5405.97</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5268.05</c:v>
+                  <c:v>5396.63</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5363.36</c:v>
+                  <c:v>5275.7</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5405.97</c:v>
+                  <c:v>5282.7</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5396.63</c:v>
+                  <c:v>5158.2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5275.7</c:v>
+                  <c:v>5287.76</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5282.7</c:v>
+                  <c:v>5375.86</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5158.2</c:v>
+                  <c:v>5484.77</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5287.76</c:v>
+                  <c:v>5525.21</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5375.86</c:v>
+                  <c:v>5528.75</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5484.77</c:v>
+                  <c:v>5560.83</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5525.21</c:v>
+                  <c:v>5569.06</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5528.75</c:v>
+                  <c:v>5604.14</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5560.83</c:v>
+                  <c:v>5686.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5851,184 +5973,184 @@
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>45691</c:v>
+                  <c:v>45694</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45692</c:v>
+                  <c:v>45695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45693</c:v>
+                  <c:v>45698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45694</c:v>
+                  <c:v>45699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45695</c:v>
+                  <c:v>45700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45698</c:v>
+                  <c:v>45701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45699</c:v>
+                  <c:v>45702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45700</c:v>
+                  <c:v>45706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45701</c:v>
+                  <c:v>45707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45702</c:v>
+                  <c:v>45708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45706</c:v>
+                  <c:v>45709</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45707</c:v>
+                  <c:v>45712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45708</c:v>
+                  <c:v>45713</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45709</c:v>
+                  <c:v>45714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45712</c:v>
+                  <c:v>45715</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45713</c:v>
+                  <c:v>45716</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45714</c:v>
+                  <c:v>45719</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45715</c:v>
+                  <c:v>45720</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45716</c:v>
+                  <c:v>45721</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45719</c:v>
+                  <c:v>45722</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45720</c:v>
+                  <c:v>45723</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45721</c:v>
+                  <c:v>45726</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45722</c:v>
+                  <c:v>45727</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45723</c:v>
+                  <c:v>45728</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45726</c:v>
+                  <c:v>45729</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45727</c:v>
+                  <c:v>45730</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45728</c:v>
+                  <c:v>45733</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45729</c:v>
+                  <c:v>45734</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45730</c:v>
+                  <c:v>45735</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45733</c:v>
+                  <c:v>45736</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45734</c:v>
+                  <c:v>45737</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45735</c:v>
+                  <c:v>45740</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45736</c:v>
+                  <c:v>45741</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45737</c:v>
+                  <c:v>45742</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45740</c:v>
+                  <c:v>45743</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45741</c:v>
+                  <c:v>45744</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45742</c:v>
+                  <c:v>45747</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45743</c:v>
+                  <c:v>45748</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45744</c:v>
+                  <c:v>45749</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45747</c:v>
+                  <c:v>45750</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45748</c:v>
+                  <c:v>45751</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45749</c:v>
+                  <c:v>45754</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45750</c:v>
+                  <c:v>45755</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45751</c:v>
+                  <c:v>45756</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45754</c:v>
+                  <c:v>45757</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45755</c:v>
+                  <c:v>45758</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45756</c:v>
+                  <c:v>45761</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45757</c:v>
+                  <c:v>45762</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45758</c:v>
+                  <c:v>45763</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>45761</c:v>
+                  <c:v>45764</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45762</c:v>
+                  <c:v>45768</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>45763</c:v>
+                  <c:v>45769</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>45764</c:v>
+                  <c:v>45770</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45768</c:v>
+                  <c:v>45771</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>45769</c:v>
+                  <c:v>45772</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>45770</c:v>
+                  <c:v>45775</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45771</c:v>
+                  <c:v>45776</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45772</c:v>
+                  <c:v>45777</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>45775</c:v>
+                  <c:v>45778</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45776</c:v>
+                  <c:v>45779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6040,184 +6162,184 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>410.92</c:v>
+                  <c:v>415.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.37</c:v>
+                  <c:v>409.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>413.29</c:v>
+                  <c:v>412.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>415.82</c:v>
+                  <c:v>411.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>409.75</c:v>
+                  <c:v>409.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>412.22</c:v>
+                  <c:v>410.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>411.44</c:v>
+                  <c:v>408.43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>409.04</c:v>
+                  <c:v>409.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>410.54</c:v>
+                  <c:v>414.77</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>408.43</c:v>
+                  <c:v>416.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>409.64</c:v>
+                  <c:v>408.21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>414.77</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>416.13</c:v>
+                  <c:v>397.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>408.21</c:v>
+                  <c:v>399.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>404</c:v>
+                  <c:v>392.53</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>397.9</c:v>
+                  <c:v>396.99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>399.73</c:v>
+                  <c:v>388.49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>392.53</c:v>
+                  <c:v>388.61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>396.99</c:v>
+                  <c:v>401.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>388.49</c:v>
+                  <c:v>396.89</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>388.61</c:v>
+                  <c:v>393.31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>401.02</c:v>
+                  <c:v>380.16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>396.89</c:v>
+                  <c:v>380.45</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>393.31</c:v>
+                  <c:v>383.27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>380.16</c:v>
+                  <c:v>378.77</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>380.45</c:v>
+                  <c:v>388.56</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>383.27</c:v>
+                  <c:v>388.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>378.77</c:v>
+                  <c:v>383.52</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>388.56</c:v>
+                  <c:v>387.82</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>388.7</c:v>
+                  <c:v>386.84</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>383.52</c:v>
+                  <c:v>391.26</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>387.82</c:v>
+                  <c:v>393.08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>386.84</c:v>
+                  <c:v>395.16</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>391.26</c:v>
+                  <c:v>389.97</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>393.08</c:v>
+                  <c:v>390.58</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>395.16</c:v>
+                  <c:v>378.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>389.97</c:v>
+                  <c:v>375.39</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>390.58</c:v>
+                  <c:v>382.19</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>378.8</c:v>
+                  <c:v>382.14</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>375.39</c:v>
+                  <c:v>373.11</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>382.19</c:v>
+                  <c:v>359.84</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>382.14</c:v>
+                  <c:v>357.86</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>373.11</c:v>
+                  <c:v>354.56</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>359.84</c:v>
+                  <c:v>390.49</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>357.86</c:v>
+                  <c:v>381.35</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>354.56</c:v>
+                  <c:v>388.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>390.49</c:v>
+                  <c:v>387.81</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>381.35</c:v>
+                  <c:v>385.73</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>388.45</c:v>
+                  <c:v>371.61</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>387.81</c:v>
+                  <c:v>367.78</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>385.73</c:v>
+                  <c:v>359.12</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>371.61</c:v>
+                  <c:v>366.82</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>367.78</c:v>
+                  <c:v>374.39</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>359.12</c:v>
+                  <c:v>387.3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>366.82</c:v>
+                  <c:v>391.85</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>374.39</c:v>
+                  <c:v>391.16</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>387.3</c:v>
+                  <c:v>394.04</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>391.85</c:v>
+                  <c:v>395.26</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>391.16</c:v>
+                  <c:v>425.4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>394.04</c:v>
+                  <c:v>435.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9768,141 +9890,70 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
-  <a r="1" c="63">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <a r="1" c="60">
     <v t="i">0</v>
     <v t="i">1</v>
-    <v t="i">2</v>
-    <v t="i">3</v>
     <v t="i">4</v>
+    <v t="i">5</v>
+    <v t="i">6</v>
     <v t="i">7</v>
     <v t="i">8</v>
-    <v t="i">9</v>
-    <v t="i">10</v>
-    <v t="i">11</v>
+    <v t="i">12</v>
+    <v t="i">13</v>
+    <v t="i">14</v>
     <v t="i">15</v>
-    <v t="i">16</v>
-    <v t="i">17</v>
     <v t="i">18</v>
+    <v t="i">19</v>
+    <v t="i">20</v>
     <v t="i">21</v>
     <v t="i">22</v>
-    <v t="i">23</v>
-    <v t="i">24</v>
     <v t="i">25</v>
+    <v t="i">26</v>
+    <v t="i">27</v>
     <v t="i">28</v>
     <v t="i">29</v>
-    <v t="i">30</v>
-    <v t="i">31</v>
     <v t="i">32</v>
+    <v t="i">33</v>
+    <v t="i">34</v>
     <v t="i">35</v>
     <v t="i">36</v>
-    <v t="i">37</v>
-    <v t="i">38</v>
     <v t="i">39</v>
+    <v t="i">40</v>
+    <v t="i">41</v>
     <v t="i">42</v>
     <v t="i">43</v>
-    <v t="i">44</v>
-    <v t="i">45</v>
     <v t="i">46</v>
+    <v t="i">47</v>
+    <v t="i">48</v>
     <v t="i">49</v>
     <v t="i">50</v>
-    <v t="i">51</v>
-    <v t="i">52</v>
     <v t="i">53</v>
+    <v t="i">54</v>
+    <v t="i">55</v>
     <v t="i">56</v>
     <v t="i">57</v>
-    <v t="i">58</v>
-    <v t="i">59</v>
     <v t="i">60</v>
+    <v t="i">61</v>
+    <v t="i">62</v>
     <v t="i">63</v>
     <v t="i">64</v>
-    <v t="i">65</v>
-    <v t="i">66</v>
     <v t="i">67</v>
+    <v t="i">68</v>
+    <v t="i">69</v>
     <v t="i">70</v>
-    <v t="i">71</v>
-    <v t="i">72</v>
-    <v t="i">73</v>
+    <v t="i">74</v>
+    <v t="i">75</v>
+    <v t="i">76</v>
     <v t="i">77</v>
     <v t="i">78</v>
-    <v t="i">79</v>
-    <v t="i">80</v>
     <v t="i">81</v>
+    <v t="i">82</v>
+    <v t="i">83</v>
     <v t="i">84</v>
     <v t="i">85</v>
-    <v t="i">86</v>
-    <v t="i">87</v>
-    <v t="i">88</v>
   </a>
-  <a r="1" c="63">
-    <v>5994.57</v>
-    <v>6037.88</v>
-    <v>6061.48</v>
-    <v>6083.57</v>
-    <v>6025.99</v>
-    <v>6066.44</v>
-    <v>6068.5</v>
-    <v>6051.97</v>
-    <v>6115.07</v>
-    <v>6114.63</v>
-    <v>6129.58</v>
-    <v>6144.15</v>
-    <v>6117.52</v>
-    <v>6013.13</v>
-    <v>5983.25</v>
-    <v>5955.25</v>
-    <v>5956.06</v>
-    <v>5861.57</v>
-    <v>5954.5</v>
-    <v>5849.72</v>
-    <v>5778.15</v>
-    <v>5842.63</v>
-    <v>5738.52</v>
-    <v>5770.2</v>
-    <v>5614.56</v>
-    <v>5572.07</v>
-    <v>5599.3</v>
-    <v>5521.52</v>
-    <v>5638.94</v>
-    <v>5675.12</v>
-    <v>5614.66</v>
-    <v>5675.29</v>
-    <v>5662.89</v>
-    <v>5667.56</v>
-    <v>5767.57</v>
-    <v>5776.65</v>
-    <v>5712.2</v>
-    <v>5693.31</v>
-    <v>5580.94</v>
-    <v>5611.85</v>
-    <v>5633.07</v>
-    <v>5670.97</v>
-    <v>5396.52</v>
-    <v>5074.08</v>
-    <v>5062.25</v>
-    <v>4982.7700000000004</v>
-    <v>5456.9</v>
-    <v>5268.05</v>
-    <v>5363.36</v>
-    <v>5405.97</v>
-    <v>5396.63</v>
-    <v>5275.7</v>
-    <v>5282.7</v>
-    <v>5158.2</v>
-    <v>5287.76</v>
-    <v>5375.86</v>
-    <v>5484.77</v>
-    <v>5525.21</v>
-    <v>5528.75</v>
-    <v>5560.83</v>
-    <v>5569.06</v>
-    <v>5604.14</v>
-    <v>5686.67</v>
-  </a>
-  <a r="1" c="63">
-    <v>410.92</v>
-    <v>412.37</v>
-    <v>413.29</v>
+  <a r="1" c="60">
     <v>415.82</v>
     <v>409.75</v>
     <v>412.22</v>
@@ -9964,11 +10015,137 @@
     <v>425.4</v>
     <v>435.28</v>
   </a>
+  <a r="1" c="61">
+    <v t="i">0</v>
+    <v t="i">1</v>
+    <v t="i">4</v>
+    <v t="i">5</v>
+    <v t="i">6</v>
+    <v t="i">7</v>
+    <v t="i">8</v>
+    <v t="i">12</v>
+    <v t="i">13</v>
+    <v t="i">14</v>
+    <v t="i">15</v>
+    <v t="i">18</v>
+    <v t="i">19</v>
+    <v t="i">20</v>
+    <v t="i">21</v>
+    <v t="i">22</v>
+    <v t="i">25</v>
+    <v t="i">26</v>
+    <v t="i">27</v>
+    <v t="i">28</v>
+    <v t="i">29</v>
+    <v t="i">32</v>
+    <v t="i">33</v>
+    <v t="i">34</v>
+    <v t="i">35</v>
+    <v t="i">36</v>
+    <v t="i">39</v>
+    <v t="i">40</v>
+    <v t="i">41</v>
+    <v t="i">42</v>
+    <v t="i">43</v>
+    <v t="i">46</v>
+    <v t="i">47</v>
+    <v t="i">48</v>
+    <v t="i">49</v>
+    <v t="i">50</v>
+    <v t="i">53</v>
+    <v t="i">54</v>
+    <v t="i">55</v>
+    <v t="i">56</v>
+    <v t="i">57</v>
+    <v t="i">60</v>
+    <v t="i">61</v>
+    <v t="i">62</v>
+    <v t="i">63</v>
+    <v t="i">64</v>
+    <v t="i">67</v>
+    <v t="i">68</v>
+    <v t="i">69</v>
+    <v t="i">70</v>
+    <v t="i">74</v>
+    <v t="i">75</v>
+    <v t="i">76</v>
+    <v t="i">77</v>
+    <v t="i">78</v>
+    <v t="i">81</v>
+    <v t="i">82</v>
+    <v t="i">83</v>
+    <v t="i">84</v>
+    <v t="i">85</v>
+    <v t="i">88</v>
+  </a>
+  <a r="1" c="61">
+    <v>6083.57</v>
+    <v>6025.99</v>
+    <v>6066.44</v>
+    <v>6068.5</v>
+    <v>6051.97</v>
+    <v>6115.07</v>
+    <v>6114.63</v>
+    <v>6129.58</v>
+    <v>6144.15</v>
+    <v>6117.52</v>
+    <v>6013.13</v>
+    <v>5983.25</v>
+    <v>5955.25</v>
+    <v>5956.06</v>
+    <v>5861.57</v>
+    <v>5954.5</v>
+    <v>5849.72</v>
+    <v>5778.15</v>
+    <v>5842.63</v>
+    <v>5738.52</v>
+    <v>5770.2</v>
+    <v>5614.56</v>
+    <v>5572.07</v>
+    <v>5599.3</v>
+    <v>5521.52</v>
+    <v>5638.94</v>
+    <v>5675.12</v>
+    <v>5614.66</v>
+    <v>5675.29</v>
+    <v>5662.89</v>
+    <v>5667.56</v>
+    <v>5767.57</v>
+    <v>5776.65</v>
+    <v>5712.2</v>
+    <v>5693.31</v>
+    <v>5580.94</v>
+    <v>5611.85</v>
+    <v>5633.07</v>
+    <v>5670.97</v>
+    <v>5396.52</v>
+    <v>5074.08</v>
+    <v>5062.25</v>
+    <v>4982.7700000000004</v>
+    <v>5456.9</v>
+    <v>5268.05</v>
+    <v>5363.36</v>
+    <v>5405.97</v>
+    <v>5396.63</v>
+    <v>5275.7</v>
+    <v>5282.7</v>
+    <v>5158.2</v>
+    <v>5287.76</v>
+    <v>5375.86</v>
+    <v>5484.77</v>
+    <v>5525.21</v>
+    <v>5528.75</v>
+    <v>5560.83</v>
+    <v>5569.06</v>
+    <v>5604.14</v>
+    <v>5686.67</v>
+    <v>5650.38</v>
+  </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="207">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="200">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1slm7&amp;q=XNAS%3aMETA&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -9986,38 +10163,38 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>740.91</v>
-    <v>432.28</v>
-    <v>1.2317</v>
-    <v>24.81</v>
-    <v>4.3358000000000001E-2</v>
-    <v>-0.13</v>
-    <v>-2.1770000000000001E-4</v>
+    <v>442.65</v>
+    <v>1.2293000000000001</v>
+    <v>-11.96</v>
+    <v>-1.9958E-2</v>
+    <v>5.3150000000000004</v>
+    <v>9.0500000000000008E-3</v>
     <v>USD</v>
     <v>Meta Platforms, Inc. builds technology that helps people connect and share, find communities, and grow businesses. The Company’s products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) and mixed reality (MR) headsets, and wearables. It operates through two segments: Family of Apps (FoA) and Reality Labs (RL). The FoA segment includes Facebook, Instagram, Messenger, Threads and WhatsApp. The RL includes augmented, mixed and virtual reality related consumer hardware, software, and content. Instagram is a place where people and creators can connect and express themselves through photos, video, and private messaging, and discover and shop from their favorite businesses. Threads is an application for text-based updates and public conversations. Its RL product offerings in VR include Meta Quest devices, and software and content available through the Meta Horizon Store, which enable a range of social experiences.</v>
-    <v>74067</v>
+    <v>76834</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
-    <v>604.34</v>
+    <v>596.03</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45779.999997117971</v>
+    <v>45783.989079224222</v>
     <v>0</v>
-    <v>578.33000000000004</v>
-    <v>1501104000000</v>
+    <v>586.58000000000004</v>
+    <v>1476689390369</v>
     <v>Meta Platforms, Inc.</v>
     <v>Meta Platforms, Inc.</v>
-    <v>583.45500000000004</v>
-    <v>21.879899999999999</v>
-    <v>572.21</v>
-    <v>597.02</v>
-    <v>596.89</v>
+    <v>592.52499999999998</v>
+    <v>22.4573</v>
+    <v>599.27</v>
+    <v>587.30999999999995</v>
+    <v>592.625</v>
     <v>2514327000</v>
     <v>META</v>
     <v>Meta Platforms, Inc. (XNAS:META)</v>
-    <v>24739260</v>
-    <v>21267793</v>
+    <v>10584193</v>
+    <v>21691299</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -10061,11 +10238,11 @@
     <v>Powered by Refinitiv</v>
     <v>468.35</v>
     <v>344.79</v>
-    <v>0.99760000000000004</v>
-    <v>9.8800000000000008</v>
-    <v>2.3224999999999999E-2</v>
-    <v>-0.625</v>
-    <v>-1.436E-3</v>
+    <v>0.99390000000000001</v>
+    <v>-2.86</v>
+    <v>-6.5569999999999995E-3</v>
+    <v>2.7900999999999998</v>
+    <v>6.4390000000000003E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
     <v>228000</v>
@@ -10073,26 +10250,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052 US</v>
-    <v>439.44</v>
+    <v>437.73</v>
     <v>6</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45779.999995092185</v>
+    <v>45783.989029096876</v>
     <v>7</v>
-    <v>429.98500000000001</v>
-    <v>3235238000000</v>
+    <v>431.17</v>
+    <v>3220595640640</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>431.74</v>
-    <v>33.639600000000002</v>
-    <v>425.4</v>
-    <v>435.28</v>
-    <v>434.65499999999997</v>
+    <v>432.2</v>
+    <v>33.708500000000001</v>
+    <v>436.17</v>
+    <v>433.31</v>
+    <v>436.1001</v>
     <v>7432544000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>30757434</v>
-    <v>27706619</v>
+    <v>15100178</v>
+    <v>28326407</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -10108,7 +10285,7 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>10</v>
     <v>en-US</v>
     <v>a1uj52</v>
     <v>268435456</v>
@@ -10116,11 +10293,11 @@
     <v>Powered by Refinitiv</v>
     <v>439.37</v>
     <v>323.77</v>
-    <v>1.0322</v>
-    <v>6.22</v>
-    <v>1.736E-2</v>
-    <v>-0.47</v>
-    <v>-1.2889999999999998E-3</v>
+    <v>1.0325</v>
+    <v>-2.35</v>
+    <v>-6.4970000000000002E-3</v>
+    <v>3.6</v>
+    <v>1.0017E-2</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers a wide assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair, and operations products, in stores and online. It also provides various services, including home improvement installation services, and tool and equipment rental. The Company operates 2,347 stores located throughout the United States, including the Commonwealth of Puerto Rico and the territories of the United States Virgin Islands and Guam, Canada, and Mexico. Its stores average approximately 104,000 square feet of enclosed space, with approximately 24,000 additional square feet of outside garden area. The Company serves two primary customer groups, including both do-it-yourself (DIY) and Do-It-For-Me (DIFM) customers and Professional Customers (Pros). It also maintains a network of distribution and fulfillment centers, as well as e-commerce websites.</v>
     <v>470100</v>
@@ -10128,25 +10305,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2455 Paces Ferry Road, ATLANTA, GA, 30339 US</v>
-    <v>366.22989999999999</v>
+    <v>362.27</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45779.999203784377</v>
+    <v>45783.978655566403</v>
     <v>10</v>
-    <v>361.16</v>
-    <v>362306707464</v>
+    <v>357.13</v>
+    <v>357197916516</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>362.08</v>
-    <v>24.447399999999998</v>
-    <v>358.3</v>
-    <v>364.52</v>
-    <v>364.05</v>
+    <v>358.68</v>
+    <v>24.102599999999999</v>
+    <v>361.73</v>
+    <v>359.38</v>
+    <v>362.98</v>
     <v>993928200</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>2283261</v>
-    <v>3866660</v>
+    <v>2299707</v>
+    <v>3819859</v>
     <v>1978</v>
   </rv>
   <rv s="2">
@@ -10157,12 +10334,12 @@
     <v>Learn more on Bing</v>
   </rv>
   <rv s="6">
-    <v>10</v>
+    <v>11</v>
     <v>S&amp;P 500 INDEX</v>
-    <v>11</v>
     <v>12</v>
+    <v>13</v>
     <v>Finance</v>
-    <v>13</v>
+    <v>14</v>
     <v>en-US</v>
     <v>a33k6h</v>
     <v>268435456</v>
@@ -10170,17 +10347,17 @@
     <v>Powered by Refinitiv</v>
     <v>6147.43</v>
     <v>4835.04</v>
-    <v>82.53</v>
-    <v>1.4726999999999999E-2</v>
+    <v>-43.47</v>
+    <v>-7.6930000000000002E-3</v>
     <v>DE</v>
-    <v>5700.7</v>
+    <v>5649.58</v>
     <v>Index</v>
     <v>13</v>
-    <v>5642.28</v>
+    <v>5586.04</v>
     <v>S&amp;P 500 INDEX</v>
-    <v>5645.88</v>
-    <v>5604.14</v>
-    <v>5686.67</v>
+    <v>5605.87</v>
+    <v>5650.38</v>
+    <v>5606.91</v>
     <v>INX</v>
     <v>S&amp;P 500 INDEX</v>
   </rv>
@@ -10188,788 +10365,760 @@
     <v>14</v>
   </rv>
   <rv s="7">
-    <fb>45691</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>410.92</fb>
+    <fb>45694</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5994.57</fb>
+    <fb>415.82</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6083.57</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45695</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45692</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>412.37</fb>
+    <fb>409.75</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6025.99</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45698</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6037.88</fb>
+    <fb>412.22</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6066.44</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45699</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45693</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>413.29</fb>
+    <fb>411.44</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6068.5</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45700</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6061.48</fb>
+    <fb>409.04</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6051.97</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45701</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45694</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>415.82</fb>
+    <fb>410.54</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6115.07</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45702</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6083.57</fb>
+    <fb>408.43</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6114.63</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45706</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45695</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>409.75</fb>
+    <fb>409.64</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6129.58</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45707</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6025.99</fb>
+    <fb>414.77</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6144.15</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45708</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45698</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>412.22</fb>
+    <fb>416.13</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6117.52</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45709</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6066.44</fb>
+    <fb>408.21</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>6013.13</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45712</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45699</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>411.44</fb>
+    <fb>404</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5983.25</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45713</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6068.5</fb>
+    <fb>397.9</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5955.25</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45714</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45700</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>409.04</fb>
+    <fb>399.73</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5956.06</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45715</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6051.97</fb>
+    <fb>392.53</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5861.57</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45716</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45701</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>410.54</fb>
+    <fb>396.99</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5954.5</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45719</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6115.07</fb>
+    <fb>388.49</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5849.72</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45720</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45702</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>408.43</fb>
+    <fb>388.61</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5778.15</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45721</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6114.63</fb>
+    <fb>401.02</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5842.63</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45722</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45706</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>409.64</fb>
+    <fb>396.89</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5738.52</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45723</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6129.58</fb>
+    <fb>393.31</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5770.2</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45726</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45707</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>414.77</fb>
+    <fb>380.16</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5614.56</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45727</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6144.15</fb>
+    <fb>380.45</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5572.07</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45728</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45708</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>416.13</fb>
+    <fb>383.27</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5599.3</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45729</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6117.52</fb>
+    <fb>378.77</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5521.52</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45730</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45709</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>408.21</fb>
+    <fb>388.56</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5638.94</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45733</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>6013.13</fb>
+    <fb>388.7</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5675.12</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45734</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45712</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>404</fb>
+    <fb>383.52</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5614.66</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45735</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5983.25</fb>
+    <fb>387.82</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5675.29</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45736</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45713</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>397.9</fb>
+    <fb>386.84</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5662.89</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45737</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5955.25</fb>
+    <fb>391.26</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5667.56</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45740</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45714</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>399.73</fb>
+    <fb>393.08</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5767.57</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45741</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5956.06</fb>
+    <fb>395.16</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5776.65</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45742</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45715</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>392.53</fb>
+    <fb>389.97</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5712.2</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45743</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5861.57</fb>
+    <fb>390.58</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5693.31</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45744</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45716</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>396.99</fb>
+    <fb>378.8</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5580.94</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45747</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5954.5</fb>
+    <fb>375.39</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5611.85</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45748</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45719</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>388.49</fb>
+    <fb>382.19</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5633.07</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45749</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5849.72</fb>
+    <fb>382.14</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5670.97</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45750</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45720</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>388.61</fb>
+    <fb>373.11</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5396.52</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45751</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5778.15</fb>
+    <fb>359.84</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5074.08</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45754</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45721</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>401.02</fb>
+    <fb>357.86</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5062.25</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45755</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5842.63</fb>
+    <fb>354.56</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>4982.7700000000004</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45756</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45722</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>396.89</fb>
+    <fb>390.49</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5456.9</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45757</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5738.52</fb>
+    <fb>381.35</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5268.05</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45758</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45723</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>393.31</fb>
+    <fb>388.45</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5363.36</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45761</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5770.2</fb>
+    <fb>387.81</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5405.97</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45762</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45726</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>380.16</fb>
+    <fb>385.73</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5396.63</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45763</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5614.56</fb>
+    <fb>371.61</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5275.7</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45764</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45727</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>380.45</fb>
+    <fb>367.78</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5282.7</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45768</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5572.07</fb>
+    <fb>359.12</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5158.2</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45769</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45728</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>383.27</fb>
+    <fb>366.82</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5287.76</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45770</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5599.3</fb>
+    <fb>374.39</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5375.86</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45771</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45729</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>378.77</fb>
+    <fb>387.3</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5484.77</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45772</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5521.52</fb>
+    <fb>391.85</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5525.21</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45775</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45730</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>388.56</fb>
+    <fb>391.16</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5528.75</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45776</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5638.94</fb>
+    <fb>394.04</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5560.83</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45777</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45733</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>388.7</fb>
+    <fb>395.26</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5569.06</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45778</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5675.12</fb>
+    <fb>425.4</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5604.14</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45779</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>45734</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>383.52</fb>
+    <fb>435.28</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>5686.67</fb>
+    <v>16</v>
+  </rv>
+  <rv s="7">
+    <fb>45782</fb>
     <v>15</v>
   </rv>
   <rv s="7">
-    <fb>5614.66</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45735</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>387.82</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5675.29</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45736</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>386.84</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5662.89</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45737</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>391.26</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5667.56</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45740</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>393.08</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5767.57</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45741</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>395.16</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5776.65</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45742</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>389.97</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5712.2</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45743</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>390.58</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5693.31</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45744</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>378.8</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5580.94</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45747</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>375.39</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5611.85</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45748</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>382.19</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5633.07</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45749</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>382.14</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5670.97</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45750</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>373.11</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5396.52</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45751</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>359.84</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5074.08</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45754</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>357.86</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5062.25</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45755</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>354.56</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>4982.7700000000004</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45756</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>390.49</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5456.9</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45757</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>381.35</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5268.05</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45758</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>388.45</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5363.36</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45761</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>387.81</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5405.97</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45762</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>385.73</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5396.63</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45763</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>371.61</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5275.7</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45764</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>367.78</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5282.7</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45768</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>359.12</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5158.2</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45769</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>366.82</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5287.76</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45770</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>374.39</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5375.86</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45771</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>387.3</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5484.77</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45772</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>391.85</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5525.21</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45775</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>391.16</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5528.75</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45776</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>394.04</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5560.83</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45777</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>395.26</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5569.06</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45778</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>425.4</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5604.14</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>45779</fb>
-    <v>14</v>
-  </rv>
-  <rv s="7">
-    <fb>435.28</fb>
-    <v>15</v>
-  </rv>
-  <rv s="7">
-    <fb>5686.67</fb>
-    <v>15</v>
+    <fb>5650.38</fb>
+    <v>16</v>
   </rv>
   <rv s="8">
-    <v>16</v>
-    <v>a33k6h</v>
+    <v>17</v>
+    <v>MSFT</v>
     <v>Daily</v>
-    <v>45691</v>
-    <v>45780</v>
+    <v>45694</v>
+    <v>45783</v>
     <v>0</v>
     <v>1</v>
-    <v>638817408000000000,638819042317204725,0</v>
-    <v>0</v>
-    <v>a33k6h</v>
-    <v/>
-    <v>1</v>
-  </rv>
-  <rv s="8">
-    <v>16</v>
-    <v>MSFT</v>
-    <v>Daily</v>
-    <v>45691</v>
-    <v>45780</v>
-    <v>0</v>
-    <v>1</v>
-    <v>638817408000000000,638819042317587704,0</v>
+    <v>638817408000000000,638821692342771938,0</v>
     <v>0</v>
     <v/>
     <v/>
+    <v>1</v>
+  </rv>
+  <rv s="8">
+    <v>17</v>
+    <v>a33k6h</v>
+    <v>Daily</v>
+    <v>45694</v>
+    <v>45783</v>
+    <v>0</v>
+    <v>1</v>
+    <v>638820000000000000,638821692342608962,0</v>
     <v>2</v>
+    <v>a33k6h</v>
+    <v>INX</v>
+    <v>3</v>
   </rv>
 </rvData>
 </file>
@@ -11265,7 +11414,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="17">
+  <spbData count="18">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -11311,9 +11460,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -11361,6 +11510,16 @@
     </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -11594,47 +11753,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28577E2B-4246-6244-A2D2-201199ECEADA}" name="Table1" displayName="Table1" ref="B3:I19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28577E2B-4246-6244-A2D2-201199ECEADA}" name="Table1" displayName="Table1" ref="B3:I19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B3:I19" xr:uid="{28577E2B-4246-6244-A2D2-201199ECEADA}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4F6D2437-3B88-614D-A414-493A9AD06CD5}" name="Date" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{9F93FECD-5E7E-5846-BB6D-B5101BABEAA0}" name="Company" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{BE8D337C-D02A-394F-97D4-BDF1A447AABD}" name="Ticker" dataDxfId="20">
+    <tableColumn id="1" xr3:uid="{4F6D2437-3B88-614D-A414-493A9AD06CD5}" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{9F93FECD-5E7E-5846-BB6D-B5101BABEAA0}" name="Company" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{BE8D337C-D02A-394F-97D4-BDF1A447AABD}" name="Ticker" dataDxfId="22">
       <calculatedColumnFormula array="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{43A80C30-A733-0046-A344-7109A819EF4B}" name="Transaction Type" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{829E647E-2DB6-4245-8E05-D29522C903E2}" name="Units" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{4628F17E-9088-4C46-808C-A37E4C0FB1F4}" name="Price" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{0958FF1E-66BD-E645-9367-29DFBC8DA582}" name="Total Transaction Amount" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{43A80C30-A733-0046-A344-7109A819EF4B}" name="Transaction Type" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{829E647E-2DB6-4245-8E05-D29522C903E2}" name="Units" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{4628F17E-9088-4C46-808C-A37E4C0FB1F4}" name="Price" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{0958FF1E-66BD-E645-9367-29DFBC8DA582}" name="Total Transaction Amount" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D62A7957-A9D7-1D47-8136-5DCBC620D0EB}" name="Currency" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{D62A7957-A9D7-1D47-8136-5DCBC620D0EB}" name="Currency" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76BAE20D-AC7F-3645-9F50-FF5BDF337926}" name="short_term_table" displayName="short_term_table" ref="D22:G26" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76BAE20D-AC7F-3645-9F50-FF5BDF337926}" name="short_term_table" displayName="short_term_table" ref="D22:G26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="D22:G26" xr:uid="{76BAE20D-AC7F-3645-9F50-FF5BDF337926}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D67C8B36-EB71-314B-919E-DAF1B81E366C}" name="#" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{582CC972-0327-994C-96CF-23770ABEBBC4}" name="Date" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{771D52FF-AB00-4A44-8FEB-BBB7A2466BB0}" name="Transaction Type" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{93DE4AA1-7D95-B74F-A83D-CF11F80A7AA3}" name="Amount" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{D67C8B36-EB71-314B-919E-DAF1B81E366C}" name="#" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{582CC972-0327-994C-96CF-23770ABEBBC4}" name="Date" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{771D52FF-AB00-4A44-8FEB-BBB7A2466BB0}" name="Transaction Type" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{93DE4AA1-7D95-B74F-A83D-CF11F80A7AA3}" name="Amount" dataDxfId="11" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE73F050-933A-8743-BA01-6108D0C601EE}" name="long_term_table" displayName="long_term_table" ref="I22:L25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CE73F050-933A-8743-BA01-6108D0C601EE}" name="long_term_table" displayName="long_term_table" ref="I22:L25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="I22:L25" xr:uid="{CE73F050-933A-8743-BA01-6108D0C601EE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C9A8A497-6280-BC42-8526-2674B1F24906}" name="#" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00215456-EE84-614D-B681-5AC7BC9748EF}" name="Date" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{AEE91C4B-390B-FF4E-9831-C57ED2D1725C}" name="Transaction Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{FD8F07ED-1AF7-4247-9562-C79C3F29D8B3}" name="Amount" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C9A8A497-6280-BC42-8526-2674B1F24906}" name="#" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00215456-EE84-614D-B681-5AC7BC9748EF}" name="Date" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AEE91C4B-390B-FF4E-9831-C57ED2D1725C}" name="Transaction Type" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FD8F07ED-1AF7-4247-9562-C79C3F29D8B3}" name="Amount" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11926,11 +12085,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5025F567-5C9B-A143-9B29-1940E917A375}">
+  <dimension ref="D6:O22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B4" zoomScale="143" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="4:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+    </row>
+    <row r="7" spans="4:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+    </row>
+    <row r="8" spans="4:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+    </row>
+    <row r="10" spans="4:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="138" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="136" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="135" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="136" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="135" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="135" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="134" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="137" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="D6:O8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A3" zoomScale="87" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A3" zoomScale="92" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11955,328 +12227,328 @@
     <row r="1" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="110" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="2:18" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="2:18" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" spans="2:18" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="74"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="111" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
     </row>
     <row r="8" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="74"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="74"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="74"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="74"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="74"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="74"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
-      <c r="Q15" s="81"/>
-      <c r="R15" s="81"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="74"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="81"/>
-      <c r="R16" s="81"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="74"/>
+      <c r="B19" s="57"/>
     </row>
     <row r="20" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="74"/>
+      <c r="B20" s="57"/>
     </row>
     <row r="21" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="76"/>
+      <c r="B21" s="59"/>
     </row>
     <row r="22" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="77"/>
+      <c r="B22" s="60"/>
     </row>
     <row r="23" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="77"/>
+      <c r="B23" s="60"/>
     </row>
     <row r="24" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="77"/>
+      <c r="B24" s="60"/>
     </row>
     <row r="25" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="77"/>
+      <c r="B25" s="60"/>
     </row>
     <row r="26" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
+      <c r="B26" s="58"/>
     </row>
     <row r="27" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="75"/>
+      <c r="B27" s="58"/>
     </row>
     <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L29" s="95" t="s">
+      <c r="L29" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="M29" s="95" t="str">
+      <c r="M29" s="67" t="str">
         <f ca="1">TEXT(TODAY(), "mmmm d, yyyy")</f>
-        <v>May 3, 2025</v>
+        <v>May 6, 2025</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12285,6 +12557,7 @@
     <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="D3:M6"/>
     <mergeCell ref="D7:M7"/>
@@ -12295,12 +12568,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4CC566-AD48-F241-80BC-D453DE63D094}">
   <dimension ref="C1:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12319,622 +12592,639 @@
   <sheetData>
     <row r="1" spans="3:17" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="3:17" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
     </row>
     <row r="4" spans="3:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="101"/>
-      <c r="D4" s="87" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="112" t="s">
+      <c r="P4" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="112"/>
-    </row>
-    <row r="5" spans="3:17" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="3:17" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+    </row>
     <row r="6" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="102">
         <v>100000</v>
       </c>
-      <c r="E6" s="88">
+      <c r="E6" s="102">
         <f t="shared" ref="E6:O6" si="0">D6*1.25</f>
         <v>125000</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="102">
         <f t="shared" si="0"/>
         <v>156250</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="102">
         <f t="shared" si="0"/>
         <v>195312.5</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="102">
         <f t="shared" si="0"/>
         <v>244140.625</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="102">
         <f t="shared" si="0"/>
         <v>305175.78125</v>
       </c>
-      <c r="J6" s="88">
+      <c r="J6" s="102">
         <f t="shared" si="0"/>
         <v>381469.7265625</v>
       </c>
-      <c r="K6" s="88">
+      <c r="K6" s="102">
         <f t="shared" si="0"/>
         <v>476837.158203125</v>
       </c>
-      <c r="L6" s="88">
+      <c r="L6" s="102">
         <f t="shared" si="0"/>
         <v>596046.44775390625</v>
       </c>
-      <c r="M6" s="88">
+      <c r="M6" s="102">
         <f t="shared" si="0"/>
         <v>745058.05969238281</v>
       </c>
-      <c r="N6" s="88">
+      <c r="N6" s="102">
         <f t="shared" si="0"/>
         <v>931322.57461547852</v>
       </c>
-      <c r="O6" s="88">
+      <c r="O6" s="102">
         <f t="shared" si="0"/>
         <v>1164153.2182693481</v>
       </c>
-      <c r="P6" s="89">
+      <c r="P6" s="103">
         <f>IF(D6="", "", LOOKUP(9.99E+307, D6:O6) - D6)</f>
         <v>1064153.2182693481</v>
       </c>
-      <c r="Q6" s="93">
+      <c r="Q6" s="104">
         <f>IF(D6=0, "", (LOOKUP(9.99E+307, D6:O6) - D6) / D6)</f>
         <v>10.641532182693481</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="102">
         <v>25000</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="102">
         <f t="shared" ref="E7:O7" si="1">D7*1.05</f>
         <v>26250</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="102">
         <f t="shared" si="1"/>
         <v>27562.5</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="102">
         <f t="shared" si="1"/>
         <v>28940.625</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="102">
         <f t="shared" si="1"/>
         <v>30387.65625</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="102">
         <f t="shared" si="1"/>
         <v>31907.0390625</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="102">
         <f t="shared" si="1"/>
         <v>33502.391015624999</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="102">
         <f t="shared" si="1"/>
         <v>35177.51056640625</v>
       </c>
-      <c r="L7" s="88">
+      <c r="L7" s="102">
         <f t="shared" si="1"/>
         <v>36936.386094726564</v>
       </c>
-      <c r="M7" s="88">
+      <c r="M7" s="102">
         <f t="shared" si="1"/>
         <v>38783.205399462895</v>
       </c>
-      <c r="N7" s="88">
+      <c r="N7" s="102">
         <f t="shared" si="1"/>
         <v>40722.36566943604</v>
       </c>
-      <c r="O7" s="88">
+      <c r="O7" s="102">
         <f t="shared" si="1"/>
         <v>42758.483952907845</v>
       </c>
-      <c r="P7" s="89">
+      <c r="P7" s="103">
         <f t="shared" ref="P7:P16" si="2">IF(D7="", "", LOOKUP(9.99E+307, D7:O7) - D7)</f>
         <v>17758.483952907845</v>
       </c>
-      <c r="Q7" s="93">
+      <c r="Q7" s="104">
         <f t="shared" ref="Q7:Q16" si="3">IF(D7=0, "", (LOOKUP(9.99E+307, D7:O7) - D7) / D7)</f>
         <v>0.71033935811631377</v>
       </c>
     </row>
     <row r="8" spans="3:17" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="102">
         <v>500000</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="102">
         <f t="shared" ref="E8:O8" si="4">D8*1.05</f>
         <v>525000</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="102">
         <f t="shared" si="4"/>
         <v>551250</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="102">
         <f t="shared" si="4"/>
         <v>578812.5</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="102">
         <f t="shared" si="4"/>
         <v>607753.125</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="102">
         <f t="shared" si="4"/>
         <v>638140.78125</v>
       </c>
-      <c r="J8" s="88">
+      <c r="J8" s="102">
         <f t="shared" si="4"/>
         <v>670047.8203125</v>
       </c>
-      <c r="K8" s="88">
+      <c r="K8" s="102">
         <f t="shared" si="4"/>
         <v>703550.21132812498</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L8" s="102">
         <f t="shared" si="4"/>
         <v>738727.72189453128</v>
       </c>
-      <c r="M8" s="88">
+      <c r="M8" s="102">
         <f t="shared" si="4"/>
         <v>775664.1079892579</v>
       </c>
-      <c r="N8" s="88">
+      <c r="N8" s="102">
         <f t="shared" si="4"/>
         <v>814447.31338872085</v>
       </c>
-      <c r="O8" s="88">
+      <c r="O8" s="102">
         <f t="shared" si="4"/>
         <v>855169.67905815691</v>
       </c>
-      <c r="P8" s="89">
+      <c r="P8" s="103">
         <f t="shared" si="2"/>
         <v>355169.67905815691</v>
       </c>
-      <c r="Q8" s="93">
+      <c r="Q8" s="104">
         <f t="shared" si="3"/>
         <v>0.71033935811631377</v>
       </c>
     </row>
     <row r="9" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="107">
         <f t="shared" ref="D9:N9" si="5">SUM(D6:D8)</f>
         <v>625000</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="107">
         <f t="shared" si="5"/>
         <v>676250</v>
       </c>
-      <c r="F9" s="90">
+      <c r="F9" s="107">
         <f t="shared" si="5"/>
         <v>735062.5</v>
       </c>
-      <c r="G9" s="90">
+      <c r="G9" s="107">
         <f t="shared" si="5"/>
         <v>803065.625</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="107">
         <f t="shared" si="5"/>
         <v>882281.40625</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="107">
         <f t="shared" si="5"/>
         <v>975223.6015625</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="107">
         <f t="shared" si="5"/>
         <v>1085019.9378906251</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="107">
         <f t="shared" si="5"/>
         <v>1215564.8800976563</v>
       </c>
-      <c r="L9" s="90">
+      <c r="L9" s="107">
         <f t="shared" si="5"/>
         <v>1371710.5557431642</v>
       </c>
-      <c r="M9" s="90">
+      <c r="M9" s="107">
         <f t="shared" si="5"/>
         <v>1559505.3730811037</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="107">
         <f t="shared" si="5"/>
         <v>1786492.2536736354</v>
       </c>
-      <c r="O9" s="90">
+      <c r="O9" s="107">
         <f>SUM(O6:O8)</f>
         <v>2062081.3812804129</v>
       </c>
-      <c r="P9" s="102">
+      <c r="P9" s="108">
         <f t="shared" si="2"/>
         <v>1437081.3812804129</v>
       </c>
-      <c r="Q9" s="94">
+      <c r="Q9" s="109">
         <f t="shared" si="3"/>
         <v>2.2993302100486606</v>
       </c>
     </row>
     <row r="10" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="80"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="91" t="str">
+      <c r="C10" s="110"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="111" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q10" s="104" t="str">
+      <c r="Q10" s="112" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="102">
         <v>40000</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="102">
         <f t="shared" ref="E11:O11" si="6">D11*1.1</f>
         <v>44000</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="102">
         <f t="shared" si="6"/>
         <v>48400.000000000007</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="102">
         <f t="shared" si="6"/>
         <v>53240.000000000015</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="102">
         <f t="shared" si="6"/>
         <v>58564.000000000022</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="102">
         <f t="shared" si="6"/>
         <v>64420.400000000031</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="102">
         <f t="shared" si="6"/>
         <v>70862.440000000046</v>
       </c>
-      <c r="K11" s="88">
+      <c r="K11" s="102">
         <f t="shared" si="6"/>
         <v>77948.684000000052</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="102">
         <f t="shared" si="6"/>
         <v>85743.552400000059</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="102">
         <f t="shared" si="6"/>
         <v>94317.907640000078</v>
       </c>
-      <c r="N11" s="88">
+      <c r="N11" s="102">
         <f t="shared" si="6"/>
         <v>103749.6984040001</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="102">
         <f t="shared" si="6"/>
         <v>114124.66824440012</v>
       </c>
-      <c r="P11" s="89">
+      <c r="P11" s="103">
         <f t="shared" si="2"/>
         <v>74124.66824440012</v>
       </c>
-      <c r="Q11" s="93">
+      <c r="Q11" s="104">
         <f t="shared" si="3"/>
         <v>1.8531167061100029</v>
       </c>
     </row>
     <row r="12" spans="3:17" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="102">
         <v>25000</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="102">
         <f t="shared" ref="E12:O12" si="7">D12*1.1</f>
         <v>27500.000000000004</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="102">
         <f t="shared" si="7"/>
         <v>30250.000000000007</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="102">
         <f t="shared" si="7"/>
         <v>33275.000000000007</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="102">
         <f t="shared" si="7"/>
         <v>36602.500000000015</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="102">
         <f t="shared" si="7"/>
         <v>40262.750000000022</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="102">
         <f t="shared" si="7"/>
         <v>44289.025000000031</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="102">
         <f t="shared" si="7"/>
         <v>48717.927500000034</v>
       </c>
-      <c r="L12" s="88">
+      <c r="L12" s="102">
         <f t="shared" si="7"/>
         <v>53589.720250000042</v>
       </c>
-      <c r="M12" s="88">
+      <c r="M12" s="102">
         <f t="shared" si="7"/>
         <v>58948.692275000052</v>
       </c>
-      <c r="N12" s="88">
+      <c r="N12" s="102">
         <f t="shared" si="7"/>
         <v>64843.561502500066</v>
       </c>
-      <c r="O12" s="88">
+      <c r="O12" s="102">
         <f t="shared" si="7"/>
         <v>71327.917652750082</v>
       </c>
-      <c r="P12" s="89">
+      <c r="P12" s="103">
         <f t="shared" si="2"/>
         <v>46327.917652750082</v>
       </c>
-      <c r="Q12" s="93">
+      <c r="Q12" s="104">
         <f t="shared" si="3"/>
         <v>1.8531167061100033</v>
       </c>
     </row>
     <row r="13" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="107">
         <f t="shared" ref="D13:N13" si="8">SUM(D11:D12)</f>
         <v>65000</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="107">
         <f t="shared" si="8"/>
         <v>71500</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="107">
         <f t="shared" si="8"/>
         <v>78650.000000000015</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="107">
         <f t="shared" si="8"/>
         <v>86515.000000000029</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="107">
         <f t="shared" si="8"/>
         <v>95166.500000000029</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="107">
         <f t="shared" si="8"/>
         <v>104683.15000000005</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="107">
         <f t="shared" si="8"/>
         <v>115151.46500000008</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="107">
         <f t="shared" si="8"/>
         <v>126666.61150000009</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="107">
         <f t="shared" si="8"/>
         <v>139333.27265000012</v>
       </c>
-      <c r="M13" s="90">
+      <c r="M13" s="107">
         <f t="shared" si="8"/>
         <v>153266.59991500014</v>
       </c>
-      <c r="N13" s="90">
+      <c r="N13" s="107">
         <f t="shared" si="8"/>
         <v>168593.25990650017</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="107">
         <f>SUM(O11:O12)</f>
         <v>185452.58589715022</v>
       </c>
-      <c r="P13" s="102">
+      <c r="P13" s="108">
         <f t="shared" si="2"/>
         <v>120452.58589715022</v>
       </c>
-      <c r="Q13" s="94">
+      <c r="Q13" s="109">
         <f t="shared" si="3"/>
         <v>1.8531167061100033</v>
       </c>
     </row>
     <row r="14" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="80"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="91" t="str">
+      <c r="C14" s="110"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="111" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q14" s="93" t="str">
+      <c r="Q14" s="104" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="3:17" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="80"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="91" t="str">
+      <c r="C15" s="110"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="111" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q15" s="93" t="str">
+      <c r="Q15" s="104" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="3:17" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="114">
         <f t="shared" ref="D16:O16" si="9">SUM(D13,D9)</f>
         <v>690000</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="114">
         <f t="shared" si="9"/>
         <v>747750</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F16" s="114">
         <f t="shared" si="9"/>
         <v>813712.5</v>
       </c>
-      <c r="G16" s="99">
+      <c r="G16" s="114">
         <f t="shared" si="9"/>
         <v>889580.625</v>
       </c>
-      <c r="H16" s="99">
+      <c r="H16" s="114">
         <f t="shared" si="9"/>
         <v>977447.90625</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I16" s="114">
         <f t="shared" si="9"/>
         <v>1079906.7515625001</v>
       </c>
-      <c r="J16" s="99">
+      <c r="J16" s="114">
         <f t="shared" si="9"/>
         <v>1200171.4028906252</v>
       </c>
-      <c r="K16" s="99">
+      <c r="K16" s="114">
         <f t="shared" si="9"/>
         <v>1342231.4915976564</v>
       </c>
-      <c r="L16" s="99">
+      <c r="L16" s="114">
         <f t="shared" si="9"/>
         <v>1511043.8283931643</v>
       </c>
-      <c r="M16" s="99">
+      <c r="M16" s="114">
         <f t="shared" si="9"/>
         <v>1712771.9729961038</v>
       </c>
-      <c r="N16" s="99">
+      <c r="N16" s="114">
         <f t="shared" si="9"/>
         <v>1955085.5135801355</v>
       </c>
-      <c r="O16" s="99">
+      <c r="O16" s="114">
         <f t="shared" si="9"/>
         <v>2247533.9671775633</v>
       </c>
-      <c r="P16" s="103">
+      <c r="P16" s="115">
         <f t="shared" si="2"/>
         <v>1557533.9671775633</v>
       </c>
-      <c r="Q16" s="100">
+      <c r="Q16" s="116">
         <f t="shared" si="3"/>
         <v>2.2572956046051642</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="C3:Q3"/>
@@ -12943,12 +13233,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P31"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12968,216 +13258,216 @@
   <sheetData>
     <row r="1" spans="2:16" ht="67" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="2:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="115" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="27"/>
-      <c r="C7" s="48"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="43"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="2:16" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="90">
         <v>8500</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="37" t="str">
+      <c r="C13" s="36" t="str">
         <f>C20</f>
         <v>Cash</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <f>D20*$D$8</f>
         <v>2550</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="39">
         <f>D21*$D$8</f>
         <v>2125</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="39" t="str">
+      <c r="C15" s="38" t="str">
         <f>C22</f>
         <v>Short-term Savings</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="39">
         <f>D22*$D$8</f>
         <v>2125</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="2:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <f>D23*$D$8</f>
         <v>1700</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="3:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="91">
         <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="39" t="str">
+      <c r="C21" s="38" t="str">
         <f>C14</f>
         <v>Investments</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="92">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="92">
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="43" t="str">
+      <c r="C23" s="40" t="str">
         <f>C16</f>
         <v>Long-term Savings</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="93">
         <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="3:6" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="32">
         <f>SUM(D20:D23)</f>
         <v>1</v>
       </c>
@@ -13190,6 +13480,7 @@
     <row r="30" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="3:6" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:D16">
     <sortCondition descending="1" ref="D14:D16"/>
   </sortState>
@@ -13214,12 +13505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145302E1-7752-AA48-AAE8-0D2D3162A5E5}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A3" zoomScale="96" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="103" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13252,13 +13543,13 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="3:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="13" t="s">
         <v>85</v>
       </c>
@@ -13278,26 +13569,26 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="3:19" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="21">
         <f>SUMIF(Table1[Transaction Type], "BUY", Table1[Total Transaction Amount])</f>
         <v>926636</v>
       </c>
       <c r="I5" s="20">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(I10))</f>
-        <v>1220808</v>
+        <v>1203394</v>
       </c>
       <c r="J5" s="20">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(K10))</f>
-        <v>33019.999999999905</v>
+        <v>-14370.000000000073</v>
       </c>
       <c r="K5" s="20">
         <f ca="1">SUM(_xlfn.ANCHORARRAY(L10))</f>
-        <v>294172</v>
+        <v>276757.99999999994</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -13306,11 +13597,11 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="3:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -13339,17 +13630,17 @@
     </row>
     <row r="8" spans="3:19" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
       <c r="M8" s="19"/>
       <c r="N8" s="10"/>
       <c r="O8" s="4"/>
@@ -13357,31 +13648,31 @@
     </row>
     <row r="9" spans="3:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10"/>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="98" t="s">
+      <c r="K9" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="98" t="s">
+      <c r="L9" s="70" t="s">
         <v>27</v>
       </c>
       <c r="M9" s="14"/>
@@ -13409,23 +13700,23 @@
       </c>
       <c r="H10" s="15" cm="1">
         <f t="array" aca="1" ref="H10:H12" ca="1">_FV(_xlfn.ANCHORARRAY(D10),"Price")</f>
-        <v>597.02</v>
+        <v>587.30999999999995</v>
       </c>
       <c r="I10" s="15" cm="1">
         <f t="array" aca="1" ref="I10:I12" ca="1">_xlfn.ANCHORARRAY(H10)*_xlfn.ANCHORARRAY(G10)</f>
-        <v>477616</v>
+        <v>469847.99999999994</v>
       </c>
       <c r="J10" s="17" cm="1">
         <f t="array" aca="1" ref="J10:J12" ca="1">_xlfn.ANCHORARRAY(I10)/SUM(_xlfn.ANCHORARRAY(I10))</f>
-        <v>0.39122941527250804</v>
+        <v>0.39043571764525992</v>
       </c>
       <c r="K10" s="16" cm="1">
         <f t="array" aca="1" ref="K10:K12" ca="1">(_xlfn.ANCHORARRAY(H10)-_FV(_xlfn.ANCHORARRAY(D10),"Previous close",TRUE))*_xlfn.ANCHORARRAY(G10)</f>
-        <v>19847.999999999956</v>
+        <v>-9568.0000000000291</v>
       </c>
       <c r="L10" s="16" cm="1">
         <f t="array" aca="1" ref="L10:L12" ca="1">_xlfn.ANCHORARRAY(I10)-SUMIFS(Table1[Total Transaction Amount],Table1[Company],_xlfn.ANCHORARRAY('TFSA Tracker'!D10))</f>
-        <v>42512</v>
+        <v>34743.999999999942</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -13450,23 +13741,23 @@
       </c>
       <c r="H11" s="15">
         <f ca="1"/>
-        <v>435.28</v>
+        <v>433.31</v>
       </c>
       <c r="I11" s="15">
         <f ca="1"/>
-        <v>87056</v>
+        <v>86662</v>
       </c>
       <c r="J11" s="17">
         <f ca="1"/>
-        <v>7.1310148688409639E-2</v>
+        <v>7.2014651892896256E-2</v>
       </c>
       <c r="K11" s="16">
         <f ca="1"/>
-        <v>1975.9999999999991</v>
+        <v>-572.00000000000273</v>
       </c>
       <c r="L11" s="16">
         <f ca="1"/>
-        <v>11936</v>
+        <v>11542</v>
       </c>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -13491,23 +13782,23 @@
       </c>
       <c r="H12" s="15">
         <f ca="1"/>
-        <v>364.52</v>
+        <v>359.38</v>
       </c>
       <c r="I12" s="15">
         <f ca="1"/>
-        <v>656136</v>
+        <v>646884</v>
       </c>
       <c r="J12" s="17">
         <f ca="1"/>
-        <v>0.53746043603908233</v>
+        <v>0.53754963046184379</v>
       </c>
       <c r="K12" s="16">
         <f ca="1"/>
-        <v>11195.999999999947</v>
+        <v>-4230.0000000000409</v>
       </c>
       <c r="L12" s="16">
         <f ca="1"/>
-        <v>239724</v>
+        <v>230472</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -13571,20 +13862,20 @@
     </row>
     <row r="16" spans="3:19" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="118" t="s">
+      <c r="H16" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="10"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -13619,13 +13910,13 @@
       <c r="H18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="94" t="s">
         <v>89</v>
       </c>
       <c r="L18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="94">
         <v>3</v>
       </c>
       <c r="N18" s="10"/>
@@ -13640,7 +13931,7 @@
       <c r="H19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="24" t="e" vm="4">
+      <c r="I19" s="94" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="J19" s="11"/>
@@ -13673,15 +13964,15 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="116" t="str">
+      <c r="H21" s="75" t="str">
         <f>M18&amp;" Month Trailing Closing Prices"</f>
         <v>3 Month Trailing Closing Prices</v>
       </c>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="3:19" ht="16" x14ac:dyDescent="0.2">
@@ -13995,6 +14286,7 @@
       <c r="N43" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="C4:G6"/>
@@ -14080,502 +14372,523 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2420640-D13F-554A-AD76-343A9A2E8ECC}">
   <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="100" customWidth="1"/>
+    <col min="3" max="3" width="39" style="100" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="100" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="100" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="100"/>
+    <col min="7" max="7" width="14.6640625" style="100" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="100" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
     <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="95" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="26" t="e" vm="1">
+      <c r="C4" s="118" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="50" t="str" cm="1">
+      <c r="D4" s="95" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>META</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="119">
         <v>100</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="120">
         <v>543.88</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="120">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>54388</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="95" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="105" t="e" vm="2">
+      <c r="C5" s="121" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D5" s="50" t="str" cm="1">
+      <c r="D5" s="95" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="119">
         <v>50</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="120">
         <v>375.6</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="120">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>18780</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="95" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="105" t="e" vm="3">
+      <c r="C6" s="121" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D6" s="71" t="str" cm="1">
+      <c r="D6" s="123" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HD</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="124">
         <v>450</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="125">
         <v>231.34</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="125">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>104103</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="123" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="26" t="e" vm="1">
+      <c r="C7" s="118" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="50" t="str" cm="1">
+      <c r="D7" s="95" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>META</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="119">
         <v>100</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="120">
         <v>543.88</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="120">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>54388</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="95" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="105" t="e" vm="1">
+      <c r="C8" s="121" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="107" t="str" cm="1">
+      <c r="D8" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>META</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="128">
         <v>100</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="129">
         <v>543.88</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>54388</v>
       </c>
-      <c r="I8" s="107" t="s">
+      <c r="I8" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="105" t="e" vm="2">
+      <c r="C9" s="121" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="107" t="str" cm="1">
+      <c r="D9" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="108">
+      <c r="F9" s="128">
         <v>50</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="129">
         <v>375.6</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>18780</v>
       </c>
-      <c r="I9" s="107" t="s">
+      <c r="I9" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="105" t="e" vm="3">
+      <c r="C10" s="121" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="107" t="str" cm="1">
+      <c r="D10" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HD</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F10" s="128">
         <v>450</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="129">
         <v>231.34</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>104103</v>
       </c>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="105" t="e" vm="1">
+      <c r="C11" s="121" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="107" t="str" cm="1">
+      <c r="D11" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>META</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="108">
+      <c r="F11" s="128">
         <v>100</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G11" s="129">
         <v>543.88</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H11" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>54388</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="105" t="e" vm="1">
+      <c r="C12" s="121" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="107" t="str" cm="1">
+      <c r="D12" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>META</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="128">
         <v>100</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="129">
         <v>543.88</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>54388</v>
       </c>
-      <c r="I12" s="107" t="s">
+      <c r="I12" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="105" t="e" vm="2">
+      <c r="C13" s="121" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="107" t="str" cm="1">
+      <c r="D13" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="128">
         <v>50</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G13" s="129">
         <v>375.6</v>
       </c>
-      <c r="H13" s="109">
+      <c r="H13" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>18780</v>
       </c>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="105" t="e" vm="3">
+      <c r="C14" s="121" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="107" t="str" cm="1">
+      <c r="D14" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HD</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="108">
+      <c r="F14" s="128">
         <v>450</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="129">
         <v>231.34</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>104103</v>
       </c>
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="105" t="e" vm="1">
+      <c r="C15" s="121" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="107" t="str" cm="1">
+      <c r="D15" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>META</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="128">
         <v>100</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="129">
         <v>543.88</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>54388</v>
       </c>
-      <c r="I15" s="107" t="s">
+      <c r="I15" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="105" t="e" vm="1">
+      <c r="C16" s="121" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="107" t="str" cm="1">
+      <c r="D16" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>META</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="108">
+      <c r="F16" s="128">
         <v>100</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="129">
         <v>543.88</v>
       </c>
-      <c r="H16" s="109">
+      <c r="H16" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>54388</v>
       </c>
-      <c r="I16" s="107" t="s">
+      <c r="I16" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="105" t="e" vm="2">
+      <c r="C17" s="121" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="107" t="str" cm="1">
+      <c r="D17" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="108">
+      <c r="F17" s="128">
         <v>50</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="129">
         <v>375.6</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>18780</v>
       </c>
-      <c r="I17" s="107" t="s">
+      <c r="I17" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B18" s="106" t="s">
+      <c r="B18" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="105" t="e" vm="3">
+      <c r="C18" s="121" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="107" t="str" cm="1">
+      <c r="D18" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HD</v>
       </c>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="108">
+      <c r="F18" s="128">
         <v>450</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="129">
         <v>231.34</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>104103</v>
       </c>
-      <c r="I18" s="107" t="s">
+      <c r="I18" s="127" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="105" t="e" vm="1">
+      <c r="C19" s="121" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="107" t="str" cm="1">
+      <c r="D19" s="127" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">_FV(Table1[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>META</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="108">
+      <c r="F19" s="128">
         <v>100</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="129">
         <v>543.88</v>
       </c>
-      <c r="H19" s="109">
+      <c r="H19" s="129">
         <f>Table1[[#This Row],[Price]]*Table1[[#This Row],[Units]]</f>
         <v>54388</v>
       </c>
-      <c r="I19" s="107" t="s">
+      <c r="I19" s="127" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -14601,447 +14914,474 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3861D47-9161-F543-8381-E5DD8AC2AEC8}">
   <dimension ref="C1:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="117" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="100" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="100" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="100" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="100" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="100" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="100" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="100" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="100" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:14" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="3:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="3:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
     <row r="3" spans="3:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="C3" s="56"/>
-      <c r="D3" s="130" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="56"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="124" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="56"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="56"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="56"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="46"/>
     </row>
     <row r="6" spans="3:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="C6" s="56"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+    </row>
+    <row r="7" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9" spans="3:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="59" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="3:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="125">
+      <c r="D11" s="79">
         <f>F17/F15</f>
         <v>0.54189068000000007</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="125">
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="79">
         <f>K17/K15</f>
         <v>0.14187187333333331</v>
       </c>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="127"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
     </row>
     <row r="12" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="120" t="str">
+      <c r="D12" s="87" t="str">
         <f>TEXT(F17/F15,"0.00%") &amp; " Complete Towards Our Goal!"</f>
         <v>54.19% Complete Towards Our Goal!</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="120" t="str">
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="87" t="str">
         <f>TEXT(K17/K15,"0.00%") &amp; " Complete Towards Our Goal!"</f>
         <v>14.19% Complete Towards Our Goal!</v>
       </c>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
     </row>
     <row r="13" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="121">
+      <c r="E14" s="86"/>
+      <c r="F14" s="82">
         <v>46143</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="122" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="122"/>
-      <c r="K14" s="121">
+      <c r="J14" s="86"/>
+      <c r="K14" s="82">
         <v>46874</v>
       </c>
-      <c r="L14" s="121"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123">
+      <c r="E15" s="86"/>
+      <c r="F15" s="88">
         <v>1000000</v>
       </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="122" t="s">
+      <c r="G15" s="88"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="123">
+      <c r="J15" s="86"/>
+      <c r="K15" s="88">
         <v>4500000</v>
       </c>
-      <c r="L15" s="123"/>
+      <c r="L15" s="88"/>
     </row>
     <row r="16" spans="3:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
     </row>
     <row r="17" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="128">
+      <c r="E17" s="86"/>
+      <c r="F17" s="83">
         <f>SUM(short_term_table[Amount])</f>
         <v>541890.68000000005</v>
       </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="122" t="s">
+      <c r="G17" s="83"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="128">
+      <c r="J17" s="86"/>
+      <c r="K17" s="83">
         <f>SUM(long_term_table[Amount])</f>
         <v>638423.42999999993</v>
       </c>
-      <c r="L17" s="128"/>
+      <c r="L17" s="83"/>
     </row>
     <row r="18" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="129">
+      <c r="E18" s="86"/>
+      <c r="F18" s="84">
         <f>F17-F15</f>
         <v>-458109.31999999995</v>
       </c>
-      <c r="G18" s="129"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="122" t="s">
+      <c r="G18" s="84"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="122"/>
-      <c r="K18" s="129">
+      <c r="J18" s="86"/>
+      <c r="K18" s="84">
         <f>K17-K15</f>
         <v>-3861576.5700000003</v>
       </c>
-      <c r="L18" s="129"/>
+      <c r="L18" s="84"/>
     </row>
     <row r="19" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="119">
+      <c r="E19" s="86"/>
+      <c r="F19" s="89">
         <f ca="1">F14-TODAY()</f>
-        <v>363</v>
-      </c>
-      <c r="G19" s="119"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="122" t="s">
+        <v>360</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="122"/>
-      <c r="K19" s="119">
+      <c r="J19" s="86"/>
+      <c r="K19" s="89">
         <f ca="1">K14-TODAY()</f>
-        <v>1094</v>
-      </c>
-      <c r="L19" s="119"/>
+        <v>1091</v>
+      </c>
+      <c r="L19" s="89"/>
     </row>
     <row r="20" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="54"/>
-      <c r="I22" s="61" t="s">
+      <c r="H22" s="45"/>
+      <c r="I22" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="61" t="s">
+      <c r="L22" s="130" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="55">
+      <c r="D23" s="131">
         <v>1</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="132">
         <v>10800</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55">
+      <c r="H23" s="45"/>
+      <c r="I23" s="131">
         <v>1</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="55" t="s">
+      <c r="K23" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="69">
+      <c r="L23" s="133">
         <v>45403.43</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" s="55">
+      <c r="D24" s="131">
         <v>2</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="62">
+      <c r="G24" s="132">
         <v>34500</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="131">
         <v>2</v>
       </c>
-      <c r="J24" s="55" t="s">
+      <c r="J24" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="55" t="s">
+      <c r="K24" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="L24" s="69">
+      <c r="L24" s="133">
         <v>24930</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="55">
+      <c r="D25" s="131">
         <v>3</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="131" t="s">
         <v>55</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="132">
         <v>2000.23</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="131">
         <v>3</v>
       </c>
-      <c r="J25" s="55" t="s">
+      <c r="J25" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="K25" s="55" t="s">
+      <c r="K25" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="69">
+      <c r="L25" s="133">
         <v>568090</v>
       </c>
     </row>
     <row r="26" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="55">
+      <c r="D26" s="131">
         <v>4</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="132">
         <v>494590.45</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="131">
         <v>4</v>
       </c>
-      <c r="J26" s="55" t="s">
+      <c r="J26" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="55" t="s">
+      <c r="K26" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="69">
+      <c r="L26" s="133">
         <v>3442.43</v>
       </c>
     </row>
     <row r="27" spans="4:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="62"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="132"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="I4:M5"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D3:G6"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="K14:L14"/>
@@ -15056,6 +15396,18 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I4:M5"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D3:G6"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="D11">
     <cfRule type="dataBar" priority="1">
@@ -15179,9 +15531,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B40D96F-55A3-244B-B473-F2A7D5E73856}">
-  <dimension ref="A2:L70"/>
+  <dimension ref="A2:L68"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K52" sqref="K52"/>
@@ -15270,7 +15622,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="str" cm="1">
-        <f t="array" aca="1" ref="E7:F70" ca="1">_xlfn.STOCKHISTORY(F4, EDATE(TODAY(), -F5), TODAY())</f>
+        <f t="array" aca="1" ref="E7:F67" ca="1">_xlfn.STOCKHISTORY(F4, EDATE(TODAY(), -F5), TODAY())</f>
         <v>Date</v>
       </c>
       <c r="F7" t="str">
@@ -15278,7 +15630,7 @@
         <v>Close</v>
       </c>
       <c r="H7" t="str" cm="1">
-        <f t="array" aca="1" ref="H7:I70" ca="1">_xlfn.STOCKHISTORY(I4, EDATE(TODAY(), -I5), TODAY())</f>
+        <f t="array" aca="1" ref="H7:I68" ca="1">_xlfn.STOCKHISTORY(I4, EDATE(TODAY(), -I5), TODAY())</f>
         <v>Date</v>
       </c>
       <c r="I7" t="str">
@@ -15292,94 +15644,94 @@
       </c>
       <c r="E8" vm="5">
         <f ca="1"/>
-        <v>45691</v>
+        <v>45694</v>
       </c>
       <c r="F8" vm="6">
         <f ca="1"/>
-        <v>410.92</v>
+        <v>415.82</v>
       </c>
       <c r="H8" vm="5">
         <f ca="1"/>
-        <v>45691</v>
+        <v>45694</v>
       </c>
       <c r="I8" vm="7">
         <f ca="1"/>
-        <v>5994.57</v>
+        <v>6083.57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E9" vm="8">
         <f ca="1"/>
-        <v>45692</v>
+        <v>45695</v>
       </c>
       <c r="F9" vm="9">
         <f ca="1"/>
-        <v>412.37</v>
+        <v>409.75</v>
       </c>
       <c r="H9" vm="8">
         <f ca="1"/>
-        <v>45692</v>
+        <v>45695</v>
       </c>
       <c r="I9" vm="10">
         <f ca="1"/>
-        <v>6037.88</v>
-      </c>
-      <c r="L9" s="60"/>
+        <v>6025.99</v>
+      </c>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E10" vm="11">
         <f ca="1"/>
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="F10" vm="12">
         <f ca="1"/>
-        <v>413.29</v>
+        <v>412.22</v>
       </c>
       <c r="H10" vm="11">
         <f ca="1"/>
-        <v>45693</v>
+        <v>45698</v>
       </c>
       <c r="I10" vm="13">
         <f ca="1"/>
-        <v>6061.48</v>
+        <v>6066.44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E11" vm="14">
         <f ca="1"/>
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="F11" vm="15">
         <f ca="1"/>
-        <v>415.82</v>
+        <v>411.44</v>
       </c>
       <c r="H11" vm="14">
         <f ca="1"/>
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="I11" vm="16">
         <f ca="1"/>
-        <v>6083.57</v>
+        <v>6068.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E12" vm="17">
         <f ca="1"/>
-        <v>45695</v>
+        <v>45700</v>
       </c>
       <c r="F12" vm="18">
         <f ca="1"/>
-        <v>409.75</v>
+        <v>409.04</v>
       </c>
       <c r="H12" vm="17">
         <f ca="1"/>
-        <v>45695</v>
+        <v>45700</v>
       </c>
       <c r="I12" vm="19">
         <f ca="1"/>
-        <v>6025.99</v>
-      </c>
-      <c r="L12" s="60"/>
+        <v>6051.97</v>
+      </c>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -15387,1118 +15739,1074 @@
       </c>
       <c r="E13" vm="20">
         <f ca="1"/>
-        <v>45698</v>
+        <v>45701</v>
       </c>
       <c r="F13" vm="21">
         <f ca="1"/>
-        <v>412.22</v>
+        <v>410.54</v>
       </c>
       <c r="H13" vm="20">
         <f ca="1"/>
-        <v>45698</v>
+        <v>45701</v>
       </c>
       <c r="I13" vm="22">
         <f ca="1"/>
-        <v>6066.44</v>
+        <v>6115.07</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>0</v>
       </c>
       <c r="E14" vm="23">
         <f ca="1"/>
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="F14" vm="24">
         <f ca="1"/>
-        <v>411.44</v>
+        <v>408.43</v>
       </c>
       <c r="H14" vm="23">
         <f ca="1"/>
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="I14" vm="25">
         <f ca="1"/>
-        <v>6068.5</v>
+        <v>6114.63</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>0.05</v>
       </c>
       <c r="E15" vm="26">
         <f ca="1"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="F15" vm="27">
         <f ca="1"/>
-        <v>409.04</v>
+        <v>409.64</v>
       </c>
       <c r="H15" vm="26">
         <f ca="1"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I15" vm="28">
         <f ca="1"/>
-        <v>6051.97</v>
+        <v>6129.58</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>0.1</v>
       </c>
       <c r="E16" vm="29">
         <f ca="1"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="F16" vm="30">
         <f ca="1"/>
-        <v>410.54</v>
+        <v>414.77</v>
       </c>
       <c r="H16" vm="29">
         <f ca="1"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I16" vm="31">
         <f ca="1"/>
-        <v>6115.07</v>
+        <v>6144.15</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="29">
+      <c r="B17" s="28">
         <v>0.15</v>
       </c>
       <c r="E17" vm="32">
         <f ca="1"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="F17" vm="33">
         <f ca="1"/>
-        <v>408.43</v>
+        <v>416.13</v>
       </c>
       <c r="H17" vm="32">
         <f ca="1"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="I17" vm="34">
         <f ca="1"/>
-        <v>6114.63</v>
+        <v>6117.52</v>
       </c>
       <c r="L17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="B18" s="29">
+      <c r="B18" s="28">
         <v>0.2</v>
       </c>
       <c r="E18" vm="35">
         <f ca="1"/>
-        <v>45706</v>
+        <v>45709</v>
       </c>
       <c r="F18" vm="36">
         <f ca="1"/>
-        <v>409.64</v>
+        <v>408.21</v>
       </c>
       <c r="H18" vm="35">
         <f ca="1"/>
-        <v>45706</v>
+        <v>45709</v>
       </c>
       <c r="I18" vm="37">
         <f ca="1"/>
-        <v>6129.58</v>
-      </c>
-      <c r="L18" s="92">
+        <v>6013.13</v>
+      </c>
+      <c r="L18" s="66">
         <f>LOOKUP(9.99E+307, Assets!D16:O16)</f>
         <v>2247533.9671775633</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="29">
+      <c r="B19" s="28">
         <v>0.25</v>
       </c>
       <c r="E19" vm="38">
         <f ca="1"/>
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="F19" vm="39">
         <f ca="1"/>
-        <v>414.77</v>
+        <v>404</v>
       </c>
       <c r="H19" vm="38">
         <f ca="1"/>
-        <v>45707</v>
+        <v>45712</v>
       </c>
       <c r="I19" vm="40">
         <f ca="1"/>
-        <v>6144.15</v>
+        <v>5983.25</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>0.3</v>
       </c>
       <c r="E20" vm="41">
         <f ca="1"/>
-        <v>45708</v>
+        <v>45713</v>
       </c>
       <c r="F20" vm="42">
         <f ca="1"/>
-        <v>416.13</v>
+        <v>397.9</v>
       </c>
       <c r="H20" vm="41">
         <f ca="1"/>
-        <v>45708</v>
+        <v>45713</v>
       </c>
       <c r="I20" vm="43">
         <f ca="1"/>
-        <v>6117.52</v>
+        <v>5955.25</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>0.35</v>
       </c>
       <c r="E21" vm="44">
         <f ca="1"/>
-        <v>45709</v>
+        <v>45714</v>
       </c>
       <c r="F21" vm="45">
         <f ca="1"/>
-        <v>408.21</v>
+        <v>399.73</v>
       </c>
       <c r="H21" vm="44">
         <f ca="1"/>
-        <v>45709</v>
+        <v>45714</v>
       </c>
       <c r="I21" vm="46">
         <f ca="1"/>
-        <v>6013.13</v>
+        <v>5956.06</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>0.4</v>
       </c>
       <c r="E22" vm="47">
         <f ca="1"/>
-        <v>45712</v>
+        <v>45715</v>
       </c>
       <c r="F22" vm="48">
         <f ca="1"/>
-        <v>404</v>
+        <v>392.53</v>
       </c>
       <c r="H22" vm="47">
         <f ca="1"/>
-        <v>45712</v>
+        <v>45715</v>
       </c>
       <c r="I22" vm="49">
         <f ca="1"/>
-        <v>5983.25</v>
+        <v>5861.57</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>0.45</v>
       </c>
       <c r="E23" vm="50">
         <f ca="1"/>
-        <v>45713</v>
+        <v>45716</v>
       </c>
       <c r="F23" vm="51">
         <f ca="1"/>
-        <v>397.9</v>
+        <v>396.99</v>
       </c>
       <c r="H23" vm="50">
         <f ca="1"/>
-        <v>45713</v>
+        <v>45716</v>
       </c>
       <c r="I23" vm="52">
         <f ca="1"/>
-        <v>5955.25</v>
+        <v>5954.5</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>0.5</v>
       </c>
       <c r="E24" vm="53">
         <f ca="1"/>
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="F24" vm="54">
         <f ca="1"/>
-        <v>399.73</v>
+        <v>388.49</v>
       </c>
       <c r="H24" vm="53">
         <f ca="1"/>
-        <v>45714</v>
+        <v>45719</v>
       </c>
       <c r="I24" vm="55">
         <f ca="1"/>
-        <v>5956.06</v>
+        <v>5849.72</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="29">
+      <c r="B25" s="28">
         <v>0.55000000000000004</v>
       </c>
       <c r="E25" vm="56">
         <f ca="1"/>
-        <v>45715</v>
+        <v>45720</v>
       </c>
       <c r="F25" vm="57">
         <f ca="1"/>
-        <v>392.53</v>
+        <v>388.61</v>
       </c>
       <c r="H25" vm="56">
         <f ca="1"/>
-        <v>45715</v>
+        <v>45720</v>
       </c>
       <c r="I25" vm="58">
         <f ca="1"/>
-        <v>5861.57</v>
+        <v>5778.15</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>0.6</v>
       </c>
       <c r="E26" vm="59">
         <f ca="1"/>
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="F26" vm="60">
         <f ca="1"/>
-        <v>396.99</v>
+        <v>401.02</v>
       </c>
       <c r="H26" vm="59">
         <f ca="1"/>
-        <v>45716</v>
+        <v>45721</v>
       </c>
       <c r="I26" vm="61">
         <f ca="1"/>
-        <v>5954.5</v>
+        <v>5842.63</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <v>0.65</v>
       </c>
       <c r="E27" vm="62">
         <f ca="1"/>
-        <v>45719</v>
+        <v>45722</v>
       </c>
       <c r="F27" vm="63">
         <f ca="1"/>
-        <v>388.49</v>
+        <v>396.89</v>
       </c>
       <c r="H27" vm="62">
         <f ca="1"/>
-        <v>45719</v>
+        <v>45722</v>
       </c>
       <c r="I27" vm="64">
         <f ca="1"/>
-        <v>5849.72</v>
+        <v>5738.52</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <v>0.7</v>
       </c>
       <c r="E28" vm="65">
         <f ca="1"/>
-        <v>45720</v>
+        <v>45723</v>
       </c>
       <c r="F28" vm="66">
         <f ca="1"/>
-        <v>388.61</v>
+        <v>393.31</v>
       </c>
       <c r="H28" vm="65">
         <f ca="1"/>
-        <v>45720</v>
+        <v>45723</v>
       </c>
       <c r="I28" vm="67">
         <f ca="1"/>
-        <v>5778.15</v>
+        <v>5770.2</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <v>0.75</v>
       </c>
       <c r="E29" vm="68">
         <f ca="1"/>
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="F29" vm="69">
         <f ca="1"/>
-        <v>401.02</v>
+        <v>380.16</v>
       </c>
       <c r="H29" vm="68">
         <f ca="1"/>
-        <v>45721</v>
+        <v>45726</v>
       </c>
       <c r="I29" vm="70">
         <f ca="1"/>
-        <v>5842.63</v>
+        <v>5614.56</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>0.8</v>
       </c>
       <c r="E30" vm="71">
         <f ca="1"/>
-        <v>45722</v>
+        <v>45727</v>
       </c>
       <c r="F30" vm="72">
         <f ca="1"/>
-        <v>396.89</v>
+        <v>380.45</v>
       </c>
       <c r="H30" vm="71">
         <f ca="1"/>
-        <v>45722</v>
+        <v>45727</v>
       </c>
       <c r="I30" vm="73">
         <f ca="1"/>
-        <v>5738.52</v>
+        <v>5572.07</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="29">
+      <c r="B31" s="28">
         <v>0.85</v>
       </c>
       <c r="E31" vm="74">
         <f ca="1"/>
-        <v>45723</v>
+        <v>45728</v>
       </c>
       <c r="F31" vm="75">
         <f ca="1"/>
-        <v>393.31</v>
+        <v>383.27</v>
       </c>
       <c r="H31" vm="74">
         <f ca="1"/>
-        <v>45723</v>
+        <v>45728</v>
       </c>
       <c r="I31" vm="76">
         <f ca="1"/>
-        <v>5770.2</v>
+        <v>5599.3</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="29">
+      <c r="B32" s="28">
         <v>0.9</v>
       </c>
       <c r="E32" vm="77">
         <f ca="1"/>
-        <v>45726</v>
+        <v>45729</v>
       </c>
       <c r="F32" vm="78">
         <f ca="1"/>
-        <v>380.16</v>
+        <v>378.77</v>
       </c>
       <c r="H32" vm="77">
         <f ca="1"/>
-        <v>45726</v>
+        <v>45729</v>
       </c>
       <c r="I32" vm="79">
         <f ca="1"/>
-        <v>5614.56</v>
+        <v>5521.52</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <v>0.95</v>
       </c>
       <c r="E33" vm="80">
         <f ca="1"/>
-        <v>45727</v>
+        <v>45730</v>
       </c>
       <c r="F33" vm="81">
         <f ca="1"/>
-        <v>380.45</v>
+        <v>388.56</v>
       </c>
       <c r="H33" vm="80">
         <f ca="1"/>
-        <v>45727</v>
+        <v>45730</v>
       </c>
       <c r="I33" vm="82">
         <f ca="1"/>
-        <v>5572.07</v>
+        <v>5638.94</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>1</v>
       </c>
       <c r="E34" vm="83">
         <f ca="1"/>
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="F34" vm="84">
         <f ca="1"/>
-        <v>383.27</v>
+        <v>388.7</v>
       </c>
       <c r="H34" vm="83">
         <f ca="1"/>
-        <v>45728</v>
+        <v>45733</v>
       </c>
       <c r="I34" vm="85">
         <f ca="1"/>
-        <v>5599.3</v>
+        <v>5675.12</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E35" vm="86">
         <f ca="1"/>
-        <v>45729</v>
+        <v>45734</v>
       </c>
       <c r="F35" vm="87">
         <f ca="1"/>
-        <v>378.77</v>
+        <v>383.52</v>
       </c>
       <c r="H35" vm="86">
         <f ca="1"/>
-        <v>45729</v>
+        <v>45734</v>
       </c>
       <c r="I35" vm="88">
         <f ca="1"/>
-        <v>5521.52</v>
+        <v>5614.66</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E36" vm="89">
         <f ca="1"/>
-        <v>45730</v>
+        <v>45735</v>
       </c>
       <c r="F36" vm="90">
         <f ca="1"/>
-        <v>388.56</v>
+        <v>387.82</v>
       </c>
       <c r="H36" vm="89">
         <f ca="1"/>
-        <v>45730</v>
+        <v>45735</v>
       </c>
       <c r="I36" vm="91">
         <f ca="1"/>
-        <v>5638.94</v>
+        <v>5675.29</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E37" vm="92">
         <f ca="1"/>
-        <v>45733</v>
+        <v>45736</v>
       </c>
       <c r="F37" vm="93">
         <f ca="1"/>
-        <v>388.7</v>
+        <v>386.84</v>
       </c>
       <c r="H37" vm="92">
         <f ca="1"/>
-        <v>45733</v>
+        <v>45736</v>
       </c>
       <c r="I37" vm="94">
         <f ca="1"/>
-        <v>5675.12</v>
+        <v>5662.89</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E38" vm="95">
         <f ca="1"/>
-        <v>45734</v>
+        <v>45737</v>
       </c>
       <c r="F38" vm="96">
         <f ca="1"/>
-        <v>383.52</v>
+        <v>391.26</v>
       </c>
       <c r="H38" vm="95">
         <f ca="1"/>
-        <v>45734</v>
+        <v>45737</v>
       </c>
       <c r="I38" vm="97">
         <f ca="1"/>
-        <v>5614.66</v>
+        <v>5667.56</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E39" vm="98">
         <f ca="1"/>
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="F39" vm="99">
         <f ca="1"/>
-        <v>387.82</v>
+        <v>393.08</v>
       </c>
       <c r="H39" vm="98">
         <f ca="1"/>
-        <v>45735</v>
+        <v>45740</v>
       </c>
       <c r="I39" vm="100">
         <f ca="1"/>
-        <v>5675.29</v>
+        <v>5767.57</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E40" vm="101">
         <f ca="1"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="F40" vm="102">
         <f ca="1"/>
-        <v>386.84</v>
+        <v>395.16</v>
       </c>
       <c r="H40" vm="101">
         <f ca="1"/>
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="I40" vm="103">
         <f ca="1"/>
-        <v>5662.89</v>
+        <v>5776.65</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E41" vm="104">
         <f ca="1"/>
-        <v>45737</v>
+        <v>45742</v>
       </c>
       <c r="F41" vm="105">
         <f ca="1"/>
-        <v>391.26</v>
+        <v>389.97</v>
       </c>
       <c r="H41" vm="104">
         <f ca="1"/>
-        <v>45737</v>
+        <v>45742</v>
       </c>
       <c r="I41" vm="106">
         <f ca="1"/>
-        <v>5667.56</v>
+        <v>5712.2</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E42" vm="107">
         <f ca="1"/>
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="F42" vm="108">
         <f ca="1"/>
-        <v>393.08</v>
+        <v>390.58</v>
       </c>
       <c r="H42" vm="107">
         <f ca="1"/>
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="I42" vm="109">
         <f ca="1"/>
-        <v>5767.57</v>
+        <v>5693.31</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E43" vm="110">
         <f ca="1"/>
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="F43" vm="111">
         <f ca="1"/>
-        <v>395.16</v>
+        <v>378.8</v>
       </c>
       <c r="H43" vm="110">
         <f ca="1"/>
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="I43" vm="112">
         <f ca="1"/>
-        <v>5776.65</v>
+        <v>5580.94</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E44" vm="113">
         <f ca="1"/>
-        <v>45742</v>
+        <v>45747</v>
       </c>
       <c r="F44" vm="114">
         <f ca="1"/>
-        <v>389.97</v>
+        <v>375.39</v>
       </c>
       <c r="H44" vm="113">
         <f ca="1"/>
-        <v>45742</v>
+        <v>45747</v>
       </c>
       <c r="I44" vm="115">
         <f ca="1"/>
-        <v>5712.2</v>
+        <v>5611.85</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E45" vm="116">
         <f ca="1"/>
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="F45" vm="117">
         <f ca="1"/>
-        <v>390.58</v>
+        <v>382.19</v>
       </c>
       <c r="H45" vm="116">
         <f ca="1"/>
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="I45" vm="118">
         <f ca="1"/>
-        <v>5693.31</v>
+        <v>5633.07</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E46" vm="119">
         <f ca="1"/>
-        <v>45744</v>
+        <v>45749</v>
       </c>
       <c r="F46" vm="120">
         <f ca="1"/>
-        <v>378.8</v>
+        <v>382.14</v>
       </c>
       <c r="H46" vm="119">
         <f ca="1"/>
-        <v>45744</v>
+        <v>45749</v>
       </c>
       <c r="I46" vm="121">
         <f ca="1"/>
-        <v>5580.94</v>
+        <v>5670.97</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E47" vm="122">
         <f ca="1"/>
-        <v>45747</v>
+        <v>45750</v>
       </c>
       <c r="F47" vm="123">
         <f ca="1"/>
-        <v>375.39</v>
+        <v>373.11</v>
       </c>
       <c r="H47" vm="122">
         <f ca="1"/>
-        <v>45747</v>
+        <v>45750</v>
       </c>
       <c r="I47" vm="124">
         <f ca="1"/>
-        <v>5611.85</v>
+        <v>5396.52</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E48" vm="125">
         <f ca="1"/>
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="F48" vm="126">
         <f ca="1"/>
-        <v>382.19</v>
+        <v>359.84</v>
       </c>
       <c r="H48" vm="125">
         <f ca="1"/>
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="I48" vm="127">
         <f ca="1"/>
-        <v>5633.07</v>
+        <v>5074.08</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E49" vm="128">
         <f ca="1"/>
-        <v>45749</v>
+        <v>45754</v>
       </c>
       <c r="F49" vm="129">
         <f ca="1"/>
-        <v>382.14</v>
+        <v>357.86</v>
       </c>
       <c r="H49" vm="128">
         <f ca="1"/>
-        <v>45749</v>
+        <v>45754</v>
       </c>
       <c r="I49" vm="130">
         <f ca="1"/>
-        <v>5670.97</v>
+        <v>5062.25</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E50" vm="131">
         <f ca="1"/>
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="F50" vm="132">
         <f ca="1"/>
-        <v>373.11</v>
+        <v>354.56</v>
       </c>
       <c r="H50" vm="131">
         <f ca="1"/>
-        <v>45750</v>
+        <v>45755</v>
       </c>
       <c r="I50" vm="133">
         <f ca="1"/>
-        <v>5396.52</v>
+        <v>4982.7700000000004</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E51" vm="134">
         <f ca="1"/>
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="F51" vm="135">
         <f ca="1"/>
-        <v>359.84</v>
+        <v>390.49</v>
       </c>
       <c r="H51" vm="134">
         <f ca="1"/>
-        <v>45751</v>
+        <v>45756</v>
       </c>
       <c r="I51" vm="136">
         <f ca="1"/>
-        <v>5074.08</v>
+        <v>5456.9</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E52" vm="137">
         <f ca="1"/>
-        <v>45754</v>
+        <v>45757</v>
       </c>
       <c r="F52" vm="138">
         <f ca="1"/>
-        <v>357.86</v>
+        <v>381.35</v>
       </c>
       <c r="H52" vm="137">
         <f ca="1"/>
-        <v>45754</v>
+        <v>45757</v>
       </c>
       <c r="I52" vm="139">
         <f ca="1"/>
-        <v>5062.25</v>
+        <v>5268.05</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E53" vm="140">
         <f ca="1"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="F53" vm="141">
         <f ca="1"/>
-        <v>354.56</v>
+        <v>388.45</v>
       </c>
       <c r="H53" vm="140">
         <f ca="1"/>
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="I53" vm="142">
         <f ca="1"/>
-        <v>4982.7700000000004</v>
+        <v>5363.36</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E54" vm="143">
         <f ca="1"/>
-        <v>45756</v>
+        <v>45761</v>
       </c>
       <c r="F54" vm="144">
         <f ca="1"/>
-        <v>390.49</v>
+        <v>387.81</v>
       </c>
       <c r="H54" vm="143">
         <f ca="1"/>
-        <v>45756</v>
+        <v>45761</v>
       </c>
       <c r="I54" vm="145">
         <f ca="1"/>
-        <v>5456.9</v>
+        <v>5405.97</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E55" vm="146">
         <f ca="1"/>
-        <v>45757</v>
+        <v>45762</v>
       </c>
       <c r="F55" vm="147">
         <f ca="1"/>
-        <v>381.35</v>
+        <v>385.73</v>
       </c>
       <c r="H55" vm="146">
         <f ca="1"/>
-        <v>45757</v>
+        <v>45762</v>
       </c>
       <c r="I55" vm="148">
         <f ca="1"/>
-        <v>5268.05</v>
+        <v>5396.63</v>
       </c>
     </row>
     <row r="56" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E56" vm="149">
         <f ca="1"/>
-        <v>45758</v>
+        <v>45763</v>
       </c>
       <c r="F56" vm="150">
         <f ca="1"/>
-        <v>388.45</v>
+        <v>371.61</v>
       </c>
       <c r="H56" vm="149">
         <f ca="1"/>
-        <v>45758</v>
+        <v>45763</v>
       </c>
       <c r="I56" vm="151">
         <f ca="1"/>
-        <v>5363.36</v>
+        <v>5275.7</v>
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E57" vm="152">
         <f ca="1"/>
-        <v>45761</v>
+        <v>45764</v>
       </c>
       <c r="F57" vm="153">
         <f ca="1"/>
-        <v>387.81</v>
+        <v>367.78</v>
       </c>
       <c r="H57" vm="152">
         <f ca="1"/>
-        <v>45761</v>
+        <v>45764</v>
       </c>
       <c r="I57" vm="154">
         <f ca="1"/>
-        <v>5405.97</v>
+        <v>5282.7</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E58" vm="155">
         <f ca="1"/>
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="F58" vm="156">
         <f ca="1"/>
-        <v>385.73</v>
+        <v>359.12</v>
       </c>
       <c r="H58" vm="155">
         <f ca="1"/>
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="I58" vm="157">
         <f ca="1"/>
-        <v>5396.63</v>
+        <v>5158.2</v>
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E59" vm="158">
         <f ca="1"/>
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="F59" vm="159">
         <f ca="1"/>
-        <v>371.61</v>
+        <v>366.82</v>
       </c>
       <c r="H59" vm="158">
         <f ca="1"/>
-        <v>45763</v>
+        <v>45769</v>
       </c>
       <c r="I59" vm="160">
         <f ca="1"/>
-        <v>5275.7</v>
+        <v>5287.76</v>
       </c>
     </row>
     <row r="60" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E60" vm="161">
         <f ca="1"/>
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="F60" vm="162">
         <f ca="1"/>
-        <v>367.78</v>
+        <v>374.39</v>
       </c>
       <c r="H60" vm="161">
         <f ca="1"/>
-        <v>45764</v>
+        <v>45770</v>
       </c>
       <c r="I60" vm="163">
         <f ca="1"/>
-        <v>5282.7</v>
+        <v>5375.86</v>
       </c>
     </row>
     <row r="61" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E61" vm="164">
         <f ca="1"/>
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="F61" vm="165">
         <f ca="1"/>
-        <v>359.12</v>
+        <v>387.3</v>
       </c>
       <c r="H61" vm="164">
         <f ca="1"/>
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="I61" vm="166">
         <f ca="1"/>
-        <v>5158.2</v>
+        <v>5484.77</v>
       </c>
     </row>
     <row r="62" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E62" vm="167">
         <f ca="1"/>
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="F62" vm="168">
         <f ca="1"/>
-        <v>366.82</v>
+        <v>391.85</v>
       </c>
       <c r="H62" vm="167">
         <f ca="1"/>
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="I62" vm="169">
         <f ca="1"/>
-        <v>5287.76</v>
+        <v>5525.21</v>
       </c>
     </row>
     <row r="63" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E63" vm="170">
         <f ca="1"/>
-        <v>45770</v>
+        <v>45775</v>
       </c>
       <c r="F63" vm="171">
         <f ca="1"/>
-        <v>374.39</v>
+        <v>391.16</v>
       </c>
       <c r="H63" vm="170">
         <f ca="1"/>
-        <v>45770</v>
+        <v>45775</v>
       </c>
       <c r="I63" vm="172">
         <f ca="1"/>
-        <v>5375.86</v>
+        <v>5528.75</v>
       </c>
     </row>
     <row r="64" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E64" vm="173">
         <f ca="1"/>
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="F64" vm="174">
         <f ca="1"/>
-        <v>387.3</v>
+        <v>394.04</v>
       </c>
       <c r="H64" vm="173">
         <f ca="1"/>
-        <v>45771</v>
+        <v>45776</v>
       </c>
       <c r="I64" vm="175">
         <f ca="1"/>
-        <v>5484.77</v>
+        <v>5560.83</v>
       </c>
     </row>
     <row r="65" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E65" vm="176">
         <f ca="1"/>
-        <v>45772</v>
+        <v>45777</v>
       </c>
       <c r="F65" vm="177">
         <f ca="1"/>
-        <v>391.85</v>
+        <v>395.26</v>
       </c>
       <c r="H65" vm="176">
         <f ca="1"/>
-        <v>45772</v>
+        <v>45777</v>
       </c>
       <c r="I65" vm="178">
         <f ca="1"/>
-        <v>5525.21</v>
+        <v>5569.06</v>
       </c>
     </row>
     <row r="66" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E66" vm="179">
         <f ca="1"/>
-        <v>45775</v>
+        <v>45778</v>
       </c>
       <c r="F66" vm="180">
         <f ca="1"/>
-        <v>391.16</v>
+        <v>425.4</v>
       </c>
       <c r="H66" vm="179">
         <f ca="1"/>
-        <v>45775</v>
+        <v>45778</v>
       </c>
       <c r="I66" vm="181">
         <f ca="1"/>
-        <v>5528.75</v>
+        <v>5604.14</v>
       </c>
     </row>
     <row r="67" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E67" vm="182">
         <f ca="1"/>
-        <v>45776</v>
+        <v>45779</v>
       </c>
       <c r="F67" vm="183">
         <f ca="1"/>
-        <v>394.04</v>
+        <v>435.28</v>
       </c>
       <c r="H67" vm="182">
         <f ca="1"/>
-        <v>45776</v>
+        <v>45779</v>
       </c>
       <c r="I67" vm="184">
         <f ca="1"/>
-        <v>5560.83</v>
+        <v>5686.67</v>
       </c>
     </row>
     <row r="68" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E68" vm="185">
-        <f ca="1"/>
-        <v>45777</v>
-      </c>
-      <c r="F68" vm="186">
-        <f ca="1"/>
-        <v>395.26</v>
-      </c>
       <c r="H68" vm="185">
         <f ca="1"/>
-        <v>45777</v>
-      </c>
-      <c r="I68" vm="187">
-        <f ca="1"/>
-        <v>5569.06</v>
-      </c>
-    </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E69" vm="188">
-        <f ca="1"/>
-        <v>45778</v>
-      </c>
-      <c r="F69" vm="189">
-        <f ca="1"/>
-        <v>425.4</v>
-      </c>
-      <c r="H69" vm="188">
-        <f ca="1"/>
-        <v>45778</v>
-      </c>
-      <c r="I69" vm="190">
-        <f ca="1"/>
-        <v>5604.14</v>
-      </c>
-    </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E70" vm="191">
-        <f ca="1"/>
-        <v>45779</v>
-      </c>
-      <c r="F70" vm="192">
-        <f ca="1"/>
-        <v>435.28</v>
-      </c>
-      <c r="H70" vm="191">
-        <f ca="1"/>
-        <v>45779</v>
-      </c>
-      <c r="I70" vm="193">
-        <f ca="1"/>
-        <v>5686.67</v>
+        <v>45782</v>
+      </c>
+      <c r="I68" vm="186">
+        <f ca="1"/>
+        <v>5650.38</v>
       </c>
     </row>
   </sheetData>
